--- a/Gantt Chart (in progress).xlsx
+++ b/Gantt Chart (in progress).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\University of Greenwich\Second Year Not Gonna Make it\Digital Media Production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8701123-0670-4076-A0CE-2F6F7C875432}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3352C3C-C4F3-49B9-8744-B686CA16A2DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,19 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Project Start:</t>
   </si>
@@ -186,16 +174,10 @@
     <t>Digital Media Production</t>
   </si>
   <si>
-    <t>Brainstorming ideas</t>
-  </si>
-  <si>
     <t>Everyone</t>
   </si>
   <si>
     <t>Think of an idea for the group project</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>Evaluation</t>
@@ -259,6 +241,36 @@
   </si>
   <si>
     <t>Modelling</t>
+  </si>
+  <si>
+    <t>Brainstorming Ideas</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Asset Creation</t>
+  </si>
+  <si>
+    <t>Level Design</t>
+  </si>
+  <si>
+    <t>Aaron/Dominic/Jacob</t>
+  </si>
+  <si>
+    <t>Dominic/Sharna</t>
+  </si>
+  <si>
+    <t>Testing (Debug,Error etc)</t>
+  </si>
+  <si>
+    <t>Sounds (Music, Sound Effects)</t>
+  </si>
+  <si>
+    <t>Corrections / Improvements</t>
   </si>
 </sst>
 </file>
@@ -786,6 +798,21 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -808,21 +835,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -839,7 +851,157 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -966,15 +1128,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="totalRow" dxfId="24"/>
+      <tableStyleElement type="firstColumn" dxfId="23"/>
+      <tableStyleElement type="lastColumn" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1333,32 +1495,32 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CB33"/>
+  <dimension ref="A1:GI41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="78" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="190" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:190" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1367,151 +1529,311 @@
       <c r="H1" s="2"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:190" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:190" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="66">
+      <c r="C3" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="71">
         <v>43378</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="71"/>
     </row>
-    <row r="4" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:190" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="63"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="68"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="64">
         <f>I5</f>
         <v>43374</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="59">
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="64">
         <f>P5</f>
         <v>43381</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="59">
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="64">
         <f>W5</f>
         <v>43388</v>
       </c>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="59">
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="64">
         <f>AD5</f>
         <v>43395</v>
       </c>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="59">
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="64">
         <f>AK5</f>
         <v>43402</v>
       </c>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="59">
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="64">
         <f>AR5</f>
         <v>43409</v>
       </c>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="59">
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="64">
         <f>AY5</f>
         <v>43416</v>
       </c>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="59">
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="65"/>
+      <c r="BC4" s="65"/>
+      <c r="BD4" s="65"/>
+      <c r="BE4" s="66"/>
+      <c r="BF4" s="64">
         <f>BF5</f>
         <v>43423</v>
       </c>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="61"/>
-      <c r="BM4" s="59">
+      <c r="BG4" s="65"/>
+      <c r="BH4" s="65"/>
+      <c r="BI4" s="65"/>
+      <c r="BJ4" s="65"/>
+      <c r="BK4" s="65"/>
+      <c r="BL4" s="66"/>
+      <c r="BM4" s="64">
         <f>BM5</f>
         <v>43430</v>
       </c>
-      <c r="BN4" s="60"/>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="60"/>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="61"/>
-      <c r="BT4" s="59">
+      <c r="BN4" s="65"/>
+      <c r="BO4" s="65"/>
+      <c r="BP4" s="65"/>
+      <c r="BQ4" s="65"/>
+      <c r="BR4" s="65"/>
+      <c r="BS4" s="66"/>
+      <c r="BT4" s="64">
         <f>BT5</f>
         <v>43437</v>
       </c>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="60"/>
-      <c r="BW4" s="60"/>
-      <c r="BX4" s="60"/>
-      <c r="BY4" s="60"/>
-      <c r="BZ4" s="61"/>
+      <c r="BU4" s="65"/>
+      <c r="BV4" s="65"/>
+      <c r="BW4" s="65"/>
+      <c r="BX4" s="65"/>
+      <c r="BY4" s="65"/>
+      <c r="BZ4" s="66"/>
+      <c r="CA4" s="64">
+        <f>CA5</f>
+        <v>43444</v>
+      </c>
+      <c r="CB4" s="65"/>
+      <c r="CC4" s="65"/>
+      <c r="CD4" s="65"/>
+      <c r="CE4" s="65"/>
+      <c r="CF4" s="65"/>
+      <c r="CG4" s="66"/>
+      <c r="CH4" s="64">
+        <f t="shared" ref="CH4" si="0">CH5</f>
+        <v>43451</v>
+      </c>
+      <c r="CI4" s="65"/>
+      <c r="CJ4" s="65"/>
+      <c r="CK4" s="65"/>
+      <c r="CL4" s="65"/>
+      <c r="CM4" s="65"/>
+      <c r="CN4" s="66"/>
+      <c r="CO4" s="64">
+        <f t="shared" ref="CO4" si="1">CO5</f>
+        <v>43458</v>
+      </c>
+      <c r="CP4" s="65"/>
+      <c r="CQ4" s="65"/>
+      <c r="CR4" s="65"/>
+      <c r="CS4" s="65"/>
+      <c r="CT4" s="65"/>
+      <c r="CU4" s="66"/>
+      <c r="CV4" s="64">
+        <f>CV5</f>
+        <v>43465</v>
+      </c>
+      <c r="CW4" s="65"/>
+      <c r="CX4" s="65"/>
+      <c r="CY4" s="65"/>
+      <c r="CZ4" s="65"/>
+      <c r="DA4" s="65"/>
+      <c r="DB4" s="66"/>
+      <c r="DC4" s="64">
+        <f t="shared" ref="DC4" si="2">DC5</f>
+        <v>43472</v>
+      </c>
+      <c r="DD4" s="65"/>
+      <c r="DE4" s="65"/>
+      <c r="DF4" s="65"/>
+      <c r="DG4" s="65"/>
+      <c r="DH4" s="65"/>
+      <c r="DI4" s="66"/>
+      <c r="DJ4" s="64">
+        <f t="shared" ref="DJ4" si="3">DJ5</f>
+        <v>43479</v>
+      </c>
+      <c r="DK4" s="65"/>
+      <c r="DL4" s="65"/>
+      <c r="DM4" s="65"/>
+      <c r="DN4" s="65"/>
+      <c r="DO4" s="65"/>
+      <c r="DP4" s="66"/>
+      <c r="DQ4" s="64">
+        <f t="shared" ref="DQ4" si="4">DQ5</f>
+        <v>43486</v>
+      </c>
+      <c r="DR4" s="65"/>
+      <c r="DS4" s="65"/>
+      <c r="DT4" s="65"/>
+      <c r="DU4" s="65"/>
+      <c r="DV4" s="65"/>
+      <c r="DW4" s="66"/>
+      <c r="DX4" s="64">
+        <f t="shared" ref="DX4" si="5">DX5</f>
+        <v>43493</v>
+      </c>
+      <c r="DY4" s="65"/>
+      <c r="DZ4" s="65"/>
+      <c r="EA4" s="65"/>
+      <c r="EB4" s="65"/>
+      <c r="EC4" s="65"/>
+      <c r="ED4" s="66"/>
+      <c r="EE4" s="64">
+        <f t="shared" ref="EE4" si="6">EE5</f>
+        <v>43500</v>
+      </c>
+      <c r="EF4" s="65"/>
+      <c r="EG4" s="65"/>
+      <c r="EH4" s="65"/>
+      <c r="EI4" s="65"/>
+      <c r="EJ4" s="65"/>
+      <c r="EK4" s="66"/>
+      <c r="EL4" s="64">
+        <f t="shared" ref="EL4" si="7">EL5</f>
+        <v>43507</v>
+      </c>
+      <c r="EM4" s="65"/>
+      <c r="EN4" s="65"/>
+      <c r="EO4" s="65"/>
+      <c r="EP4" s="65"/>
+      <c r="EQ4" s="65"/>
+      <c r="ER4" s="66"/>
+      <c r="ES4" s="64">
+        <f t="shared" ref="ES4" si="8">ES5</f>
+        <v>43514</v>
+      </c>
+      <c r="ET4" s="65"/>
+      <c r="EU4" s="65"/>
+      <c r="EV4" s="65"/>
+      <c r="EW4" s="65"/>
+      <c r="EX4" s="65"/>
+      <c r="EY4" s="66"/>
+      <c r="EZ4" s="64">
+        <f t="shared" ref="EZ4" si="9">EZ5</f>
+        <v>43521</v>
+      </c>
+      <c r="FA4" s="65"/>
+      <c r="FB4" s="65"/>
+      <c r="FC4" s="65"/>
+      <c r="FD4" s="65"/>
+      <c r="FE4" s="65"/>
+      <c r="FF4" s="66"/>
+      <c r="FG4" s="64">
+        <f t="shared" ref="FG4" si="10">FG5</f>
+        <v>43528</v>
+      </c>
+      <c r="FH4" s="65"/>
+      <c r="FI4" s="65"/>
+      <c r="FJ4" s="65"/>
+      <c r="FK4" s="65"/>
+      <c r="FL4" s="65"/>
+      <c r="FM4" s="66"/>
+      <c r="FN4" s="64">
+        <f t="shared" ref="FN4" si="11">FN5</f>
+        <v>43535</v>
+      </c>
+      <c r="FO4" s="65"/>
+      <c r="FP4" s="65"/>
+      <c r="FQ4" s="65"/>
+      <c r="FR4" s="65"/>
+      <c r="FS4" s="65"/>
+      <c r="FT4" s="66"/>
+      <c r="FU4" s="64">
+        <f t="shared" ref="FU4" si="12">FU5</f>
+        <v>43542</v>
+      </c>
+      <c r="FV4" s="65"/>
+      <c r="FW4" s="65"/>
+      <c r="FX4" s="65"/>
+      <c r="FY4" s="65"/>
+      <c r="FZ4" s="65"/>
+      <c r="GA4" s="66"/>
+      <c r="GB4" s="64">
+        <f t="shared" ref="GB4" si="13">GB5</f>
+        <v>43549</v>
+      </c>
+      <c r="GC4" s="65"/>
+      <c r="GD4" s="65"/>
+      <c r="GE4" s="65"/>
+      <c r="GF4" s="65"/>
+      <c r="GG4" s="65"/>
+      <c r="GH4" s="66"/>
     </row>
-    <row r="5" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:190" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43374</v>
@@ -1521,23 +1843,23 @@
         <v>43375</v>
       </c>
       <c r="K5" s="9">
-        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <f t="shared" ref="K5:AX5" si="14">J5+1</f>
         <v>43376</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43377</v>
       </c>
       <c r="M5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43378</v>
       </c>
       <c r="N5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43379</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43380</v>
       </c>
       <c r="P5" s="10">
@@ -1549,23 +1871,23 @@
         <v>43382</v>
       </c>
       <c r="R5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43383</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43384</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43385</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43386</v>
       </c>
       <c r="V5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43387</v>
       </c>
       <c r="W5" s="10">
@@ -1577,23 +1899,23 @@
         <v>43389</v>
       </c>
       <c r="Y5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43390</v>
       </c>
       <c r="Z5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43391</v>
       </c>
       <c r="AA5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43392</v>
       </c>
       <c r="AB5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43393</v>
       </c>
       <c r="AC5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43394</v>
       </c>
       <c r="AD5" s="10">
@@ -1605,23 +1927,23 @@
         <v>43396</v>
       </c>
       <c r="AF5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43397</v>
       </c>
       <c r="AG5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43398</v>
       </c>
       <c r="AH5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43399</v>
       </c>
       <c r="AI5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43400</v>
       </c>
       <c r="AJ5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43401</v>
       </c>
       <c r="AK5" s="10">
@@ -1633,23 +1955,23 @@
         <v>43403</v>
       </c>
       <c r="AM5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43404</v>
       </c>
       <c r="AN5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43405</v>
       </c>
       <c r="AO5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43406</v>
       </c>
       <c r="AP5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43407</v>
       </c>
       <c r="AQ5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43408</v>
       </c>
       <c r="AR5" s="10">
@@ -1661,23 +1983,23 @@
         <v>43410</v>
       </c>
       <c r="AT5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43411</v>
       </c>
       <c r="AU5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43412</v>
       </c>
       <c r="AV5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43413</v>
       </c>
       <c r="AW5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43414</v>
       </c>
       <c r="AX5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>43415</v>
       </c>
       <c r="AY5" s="10">
@@ -1689,23 +2011,23 @@
         <v>43417</v>
       </c>
       <c r="BA5" s="9">
-        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+        <f t="shared" ref="BA5:BE5" si="15">AZ5+1</f>
         <v>43418</v>
       </c>
       <c r="BB5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>43419</v>
       </c>
       <c r="BC5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>43420</v>
       </c>
       <c r="BD5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>43421</v>
       </c>
       <c r="BE5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>43422</v>
       </c>
       <c r="BF5" s="10">
@@ -1717,23 +2039,23 @@
         <v>43424</v>
       </c>
       <c r="BH5" s="9">
-        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+        <f t="shared" ref="BH5:BL5" si="16">BG5+1</f>
         <v>43425</v>
       </c>
       <c r="BI5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>43426</v>
       </c>
       <c r="BJ5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>43427</v>
       </c>
       <c r="BK5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>43428</v>
       </c>
       <c r="BL5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>43429</v>
       </c>
       <c r="BM5" s="10">
@@ -1745,23 +2067,23 @@
         <v>43431</v>
       </c>
       <c r="BO5" s="9">
-        <f t="shared" ref="BO5" si="3">BN5+1</f>
+        <f t="shared" ref="BO5" si="17">BN5+1</f>
         <v>43432</v>
       </c>
       <c r="BP5" s="9">
-        <f t="shared" ref="BP5" si="4">BO5+1</f>
+        <f t="shared" ref="BP5" si="18">BO5+1</f>
         <v>43433</v>
       </c>
       <c r="BQ5" s="9">
-        <f t="shared" ref="BQ5" si="5">BP5+1</f>
+        <f t="shared" ref="BQ5" si="19">BP5+1</f>
         <v>43434</v>
       </c>
       <c r="BR5" s="9">
-        <f t="shared" ref="BR5" si="6">BQ5+1</f>
+        <f t="shared" ref="BR5" si="20">BQ5+1</f>
         <v>43435</v>
       </c>
       <c r="BS5" s="11">
-        <f t="shared" ref="BS5" si="7">BR5+1</f>
+        <f t="shared" ref="BS5" si="21">BR5+1</f>
         <v>43436</v>
       </c>
       <c r="BT5" s="10">
@@ -1773,333 +2095,1229 @@
         <v>43438</v>
       </c>
       <c r="BV5" s="9">
-        <f t="shared" ref="BV5" si="8">BU5+1</f>
+        <f t="shared" ref="BV5" si="22">BU5+1</f>
         <v>43439</v>
       </c>
       <c r="BW5" s="9">
-        <f t="shared" ref="BW5" si="9">BV5+1</f>
+        <f t="shared" ref="BW5" si="23">BV5+1</f>
         <v>43440</v>
       </c>
       <c r="BX5" s="9">
-        <f t="shared" ref="BX5" si="10">BW5+1</f>
+        <f t="shared" ref="BX5" si="24">BW5+1</f>
         <v>43441</v>
       </c>
       <c r="BY5" s="9">
-        <f t="shared" ref="BY5" si="11">BX5+1</f>
+        <f t="shared" ref="BY5" si="25">BX5+1</f>
         <v>43442</v>
       </c>
       <c r="BZ5" s="11">
-        <f t="shared" ref="BZ5" si="12">BY5+1</f>
+        <f t="shared" ref="BZ5" si="26">BY5+1</f>
         <v>43443</v>
       </c>
+      <c r="CA5" s="10">
+        <f>BZ5+1</f>
+        <v>43444</v>
+      </c>
+      <c r="CB5" s="9">
+        <f>CA5+1</f>
+        <v>43445</v>
+      </c>
+      <c r="CC5" s="9">
+        <f t="shared" ref="CC5" si="27">CB5+1</f>
+        <v>43446</v>
+      </c>
+      <c r="CD5" s="9">
+        <f t="shared" ref="CD5" si="28">CC5+1</f>
+        <v>43447</v>
+      </c>
+      <c r="CE5" s="9">
+        <f t="shared" ref="CE5" si="29">CD5+1</f>
+        <v>43448</v>
+      </c>
+      <c r="CF5" s="9">
+        <f t="shared" ref="CF5" si="30">CE5+1</f>
+        <v>43449</v>
+      </c>
+      <c r="CG5" s="11">
+        <f t="shared" ref="CG5:CI5" si="31">CF5+1</f>
+        <v>43450</v>
+      </c>
+      <c r="CH5" s="10">
+        <f t="shared" si="31"/>
+        <v>43451</v>
+      </c>
+      <c r="CI5" s="9">
+        <f t="shared" si="31"/>
+        <v>43452</v>
+      </c>
+      <c r="CJ5" s="9">
+        <f t="shared" ref="CJ5" si="32">CI5+1</f>
+        <v>43453</v>
+      </c>
+      <c r="CK5" s="9">
+        <f t="shared" ref="CK5" si="33">CJ5+1</f>
+        <v>43454</v>
+      </c>
+      <c r="CL5" s="9">
+        <f t="shared" ref="CL5" si="34">CK5+1</f>
+        <v>43455</v>
+      </c>
+      <c r="CM5" s="9">
+        <f t="shared" ref="CM5" si="35">CL5+1</f>
+        <v>43456</v>
+      </c>
+      <c r="CN5" s="11">
+        <f t="shared" ref="CN5:CP5" si="36">CM5+1</f>
+        <v>43457</v>
+      </c>
+      <c r="CO5" s="10">
+        <f t="shared" si="36"/>
+        <v>43458</v>
+      </c>
+      <c r="CP5" s="9">
+        <f t="shared" si="36"/>
+        <v>43459</v>
+      </c>
+      <c r="CQ5" s="9">
+        <f t="shared" ref="CQ5" si="37">CP5+1</f>
+        <v>43460</v>
+      </c>
+      <c r="CR5" s="9">
+        <f t="shared" ref="CR5" si="38">CQ5+1</f>
+        <v>43461</v>
+      </c>
+      <c r="CS5" s="9">
+        <f t="shared" ref="CS5" si="39">CR5+1</f>
+        <v>43462</v>
+      </c>
+      <c r="CT5" s="9">
+        <f t="shared" ref="CT5" si="40">CS5+1</f>
+        <v>43463</v>
+      </c>
+      <c r="CU5" s="11">
+        <f t="shared" ref="CU5" si="41">CT5+1</f>
+        <v>43464</v>
+      </c>
+      <c r="CV5" s="10">
+        <f>CU5+1</f>
+        <v>43465</v>
+      </c>
+      <c r="CW5" s="9">
+        <f>CV5+1</f>
+        <v>43466</v>
+      </c>
+      <c r="CX5" s="9">
+        <f t="shared" ref="CX5" si="42">CW5+1</f>
+        <v>43467</v>
+      </c>
+      <c r="CY5" s="9">
+        <f t="shared" ref="CY5" si="43">CX5+1</f>
+        <v>43468</v>
+      </c>
+      <c r="CZ5" s="9">
+        <f t="shared" ref="CZ5" si="44">CY5+1</f>
+        <v>43469</v>
+      </c>
+      <c r="DA5" s="9">
+        <f t="shared" ref="DA5" si="45">CZ5+1</f>
+        <v>43470</v>
+      </c>
+      <c r="DB5" s="11">
+        <f t="shared" ref="DB5:DD5" si="46">DA5+1</f>
+        <v>43471</v>
+      </c>
+      <c r="DC5" s="10">
+        <f t="shared" si="46"/>
+        <v>43472</v>
+      </c>
+      <c r="DD5" s="9">
+        <f t="shared" si="46"/>
+        <v>43473</v>
+      </c>
+      <c r="DE5" s="9">
+        <f t="shared" ref="DE5" si="47">DD5+1</f>
+        <v>43474</v>
+      </c>
+      <c r="DF5" s="9">
+        <f t="shared" ref="DF5" si="48">DE5+1</f>
+        <v>43475</v>
+      </c>
+      <c r="DG5" s="9">
+        <f t="shared" ref="DG5" si="49">DF5+1</f>
+        <v>43476</v>
+      </c>
+      <c r="DH5" s="9">
+        <f t="shared" ref="DH5" si="50">DG5+1</f>
+        <v>43477</v>
+      </c>
+      <c r="DI5" s="11">
+        <f t="shared" ref="DI5:DK5" si="51">DH5+1</f>
+        <v>43478</v>
+      </c>
+      <c r="DJ5" s="10">
+        <f t="shared" si="51"/>
+        <v>43479</v>
+      </c>
+      <c r="DK5" s="9">
+        <f t="shared" si="51"/>
+        <v>43480</v>
+      </c>
+      <c r="DL5" s="9">
+        <f t="shared" ref="DL5" si="52">DK5+1</f>
+        <v>43481</v>
+      </c>
+      <c r="DM5" s="9">
+        <f t="shared" ref="DM5" si="53">DL5+1</f>
+        <v>43482</v>
+      </c>
+      <c r="DN5" s="9">
+        <f t="shared" ref="DN5" si="54">DM5+1</f>
+        <v>43483</v>
+      </c>
+      <c r="DO5" s="9">
+        <f t="shared" ref="DO5" si="55">DN5+1</f>
+        <v>43484</v>
+      </c>
+      <c r="DP5" s="11">
+        <f t="shared" ref="DP5:DR5" si="56">DO5+1</f>
+        <v>43485</v>
+      </c>
+      <c r="DQ5" s="10">
+        <f t="shared" si="56"/>
+        <v>43486</v>
+      </c>
+      <c r="DR5" s="9">
+        <f t="shared" si="56"/>
+        <v>43487</v>
+      </c>
+      <c r="DS5" s="9">
+        <f t="shared" ref="DS5" si="57">DR5+1</f>
+        <v>43488</v>
+      </c>
+      <c r="DT5" s="9">
+        <f t="shared" ref="DT5" si="58">DS5+1</f>
+        <v>43489</v>
+      </c>
+      <c r="DU5" s="9">
+        <f t="shared" ref="DU5" si="59">DT5+1</f>
+        <v>43490</v>
+      </c>
+      <c r="DV5" s="9">
+        <f t="shared" ref="DV5" si="60">DU5+1</f>
+        <v>43491</v>
+      </c>
+      <c r="DW5" s="11">
+        <f t="shared" ref="DW5:DY5" si="61">DV5+1</f>
+        <v>43492</v>
+      </c>
+      <c r="DX5" s="10">
+        <f t="shared" si="61"/>
+        <v>43493</v>
+      </c>
+      <c r="DY5" s="9">
+        <f t="shared" si="61"/>
+        <v>43494</v>
+      </c>
+      <c r="DZ5" s="9">
+        <f t="shared" ref="DZ5" si="62">DY5+1</f>
+        <v>43495</v>
+      </c>
+      <c r="EA5" s="9">
+        <f t="shared" ref="EA5" si="63">DZ5+1</f>
+        <v>43496</v>
+      </c>
+      <c r="EB5" s="9">
+        <f t="shared" ref="EB5" si="64">EA5+1</f>
+        <v>43497</v>
+      </c>
+      <c r="EC5" s="9">
+        <f t="shared" ref="EC5" si="65">EB5+1</f>
+        <v>43498</v>
+      </c>
+      <c r="ED5" s="11">
+        <f t="shared" ref="ED5:EF5" si="66">EC5+1</f>
+        <v>43499</v>
+      </c>
+      <c r="EE5" s="10">
+        <f t="shared" si="66"/>
+        <v>43500</v>
+      </c>
+      <c r="EF5" s="9">
+        <f t="shared" si="66"/>
+        <v>43501</v>
+      </c>
+      <c r="EG5" s="9">
+        <f t="shared" ref="EG5" si="67">EF5+1</f>
+        <v>43502</v>
+      </c>
+      <c r="EH5" s="9">
+        <f t="shared" ref="EH5" si="68">EG5+1</f>
+        <v>43503</v>
+      </c>
+      <c r="EI5" s="9">
+        <f t="shared" ref="EI5" si="69">EH5+1</f>
+        <v>43504</v>
+      </c>
+      <c r="EJ5" s="9">
+        <f t="shared" ref="EJ5" si="70">EI5+1</f>
+        <v>43505</v>
+      </c>
+      <c r="EK5" s="11">
+        <f t="shared" ref="EK5:EM5" si="71">EJ5+1</f>
+        <v>43506</v>
+      </c>
+      <c r="EL5" s="10">
+        <f t="shared" si="71"/>
+        <v>43507</v>
+      </c>
+      <c r="EM5" s="9">
+        <f t="shared" si="71"/>
+        <v>43508</v>
+      </c>
+      <c r="EN5" s="9">
+        <f t="shared" ref="EN5" si="72">EM5+1</f>
+        <v>43509</v>
+      </c>
+      <c r="EO5" s="9">
+        <f t="shared" ref="EO5" si="73">EN5+1</f>
+        <v>43510</v>
+      </c>
+      <c r="EP5" s="9">
+        <f t="shared" ref="EP5" si="74">EO5+1</f>
+        <v>43511</v>
+      </c>
+      <c r="EQ5" s="9">
+        <f t="shared" ref="EQ5" si="75">EP5+1</f>
+        <v>43512</v>
+      </c>
+      <c r="ER5" s="11">
+        <f t="shared" ref="ER5:ET5" si="76">EQ5+1</f>
+        <v>43513</v>
+      </c>
+      <c r="ES5" s="10">
+        <f t="shared" si="76"/>
+        <v>43514</v>
+      </c>
+      <c r="ET5" s="9">
+        <f t="shared" si="76"/>
+        <v>43515</v>
+      </c>
+      <c r="EU5" s="9">
+        <f t="shared" ref="EU5" si="77">ET5+1</f>
+        <v>43516</v>
+      </c>
+      <c r="EV5" s="9">
+        <f t="shared" ref="EV5" si="78">EU5+1</f>
+        <v>43517</v>
+      </c>
+      <c r="EW5" s="9">
+        <f t="shared" ref="EW5" si="79">EV5+1</f>
+        <v>43518</v>
+      </c>
+      <c r="EX5" s="9">
+        <f t="shared" ref="EX5" si="80">EW5+1</f>
+        <v>43519</v>
+      </c>
+      <c r="EY5" s="11">
+        <f t="shared" ref="EY5:FA5" si="81">EX5+1</f>
+        <v>43520</v>
+      </c>
+      <c r="EZ5" s="10">
+        <f t="shared" si="81"/>
+        <v>43521</v>
+      </c>
+      <c r="FA5" s="9">
+        <f t="shared" si="81"/>
+        <v>43522</v>
+      </c>
+      <c r="FB5" s="9">
+        <f t="shared" ref="FB5" si="82">FA5+1</f>
+        <v>43523</v>
+      </c>
+      <c r="FC5" s="9">
+        <f t="shared" ref="FC5" si="83">FB5+1</f>
+        <v>43524</v>
+      </c>
+      <c r="FD5" s="9">
+        <f t="shared" ref="FD5" si="84">FC5+1</f>
+        <v>43525</v>
+      </c>
+      <c r="FE5" s="9">
+        <f t="shared" ref="FE5" si="85">FD5+1</f>
+        <v>43526</v>
+      </c>
+      <c r="FF5" s="11">
+        <f t="shared" ref="FF5:FH5" si="86">FE5+1</f>
+        <v>43527</v>
+      </c>
+      <c r="FG5" s="10">
+        <f t="shared" si="86"/>
+        <v>43528</v>
+      </c>
+      <c r="FH5" s="9">
+        <f t="shared" si="86"/>
+        <v>43529</v>
+      </c>
+      <c r="FI5" s="9">
+        <f t="shared" ref="FI5" si="87">FH5+1</f>
+        <v>43530</v>
+      </c>
+      <c r="FJ5" s="9">
+        <f t="shared" ref="FJ5" si="88">FI5+1</f>
+        <v>43531</v>
+      </c>
+      <c r="FK5" s="9">
+        <f t="shared" ref="FK5" si="89">FJ5+1</f>
+        <v>43532</v>
+      </c>
+      <c r="FL5" s="9">
+        <f t="shared" ref="FL5" si="90">FK5+1</f>
+        <v>43533</v>
+      </c>
+      <c r="FM5" s="11">
+        <f t="shared" ref="FM5:FO5" si="91">FL5+1</f>
+        <v>43534</v>
+      </c>
+      <c r="FN5" s="10">
+        <f t="shared" si="91"/>
+        <v>43535</v>
+      </c>
+      <c r="FO5" s="9">
+        <f t="shared" si="91"/>
+        <v>43536</v>
+      </c>
+      <c r="FP5" s="9">
+        <f t="shared" ref="FP5" si="92">FO5+1</f>
+        <v>43537</v>
+      </c>
+      <c r="FQ5" s="9">
+        <f t="shared" ref="FQ5" si="93">FP5+1</f>
+        <v>43538</v>
+      </c>
+      <c r="FR5" s="9">
+        <f t="shared" ref="FR5" si="94">FQ5+1</f>
+        <v>43539</v>
+      </c>
+      <c r="FS5" s="9">
+        <f t="shared" ref="FS5" si="95">FR5+1</f>
+        <v>43540</v>
+      </c>
+      <c r="FT5" s="11">
+        <f t="shared" ref="FT5:FV5" si="96">FS5+1</f>
+        <v>43541</v>
+      </c>
+      <c r="FU5" s="10">
+        <f t="shared" si="96"/>
+        <v>43542</v>
+      </c>
+      <c r="FV5" s="9">
+        <f t="shared" si="96"/>
+        <v>43543</v>
+      </c>
+      <c r="FW5" s="9">
+        <f t="shared" ref="FW5" si="97">FV5+1</f>
+        <v>43544</v>
+      </c>
+      <c r="FX5" s="9">
+        <f t="shared" ref="FX5" si="98">FW5+1</f>
+        <v>43545</v>
+      </c>
+      <c r="FY5" s="9">
+        <f t="shared" ref="FY5" si="99">FX5+1</f>
+        <v>43546</v>
+      </c>
+      <c r="FZ5" s="9">
+        <f t="shared" ref="FZ5" si="100">FY5+1</f>
+        <v>43547</v>
+      </c>
+      <c r="GA5" s="11">
+        <f t="shared" ref="GA5" si="101">FZ5+1</f>
+        <v>43548</v>
+      </c>
+      <c r="GB5" s="10">
+        <f t="shared" ref="GB5" si="102">GA5+1</f>
+        <v>43549</v>
+      </c>
+      <c r="GC5" s="9">
+        <f t="shared" ref="GC5" si="103">GB5+1</f>
+        <v>43550</v>
+      </c>
+      <c r="GD5" s="9">
+        <f t="shared" ref="GD5" si="104">GC5+1</f>
+        <v>43551</v>
+      </c>
+      <c r="GE5" s="9">
+        <f t="shared" ref="GE5" si="105">GD5+1</f>
+        <v>43552</v>
+      </c>
+      <c r="GF5" s="9">
+        <f t="shared" ref="GF5" si="106">GE5+1</f>
+        <v>43553</v>
+      </c>
+      <c r="GG5" s="9">
+        <f t="shared" ref="GG5" si="107">GF5+1</f>
+        <v>43554</v>
+      </c>
+      <c r="GH5" s="11">
+        <f t="shared" ref="GH5" si="108">GG5+1</f>
+        <v>43555</v>
+      </c>
     </row>
-    <row r="6" spans="1:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:190" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I6" s="12" t="str">
-        <f t="shared" ref="I6" si="13">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="109">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="12" t="str">
-        <f t="shared" ref="J6:AR6" si="14">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AR6" si="110">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>W</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>T</v>
       </c>
       <c r="M6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>F</v>
       </c>
       <c r="N6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>S</v>
       </c>
       <c r="O6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>S</v>
       </c>
       <c r="P6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>M</v>
       </c>
       <c r="Q6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>T</v>
       </c>
       <c r="R6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>W</v>
       </c>
       <c r="S6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>T</v>
       </c>
       <c r="T6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>F</v>
       </c>
       <c r="U6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>S</v>
       </c>
       <c r="V6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>S</v>
       </c>
       <c r="W6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>M</v>
       </c>
       <c r="X6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>T</v>
       </c>
       <c r="Y6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>W</v>
       </c>
       <c r="Z6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>T</v>
       </c>
       <c r="AA6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>F</v>
       </c>
       <c r="AB6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>S</v>
       </c>
       <c r="AC6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>S</v>
       </c>
       <c r="AD6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>M</v>
       </c>
       <c r="AE6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>T</v>
       </c>
       <c r="AF6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>W</v>
       </c>
       <c r="AG6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>T</v>
       </c>
       <c r="AH6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>F</v>
       </c>
       <c r="AI6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>S</v>
       </c>
       <c r="AK6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>M</v>
       </c>
       <c r="AL6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>T</v>
       </c>
       <c r="AM6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>W</v>
       </c>
       <c r="AN6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>T</v>
       </c>
       <c r="AO6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>F</v>
       </c>
       <c r="AP6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>S</v>
       </c>
       <c r="AR6" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="110"/>
         <v>M</v>
       </c>
       <c r="AS6" s="12" t="str">
-        <f t="shared" ref="AS6:BL6" si="15">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:BL6" si="111">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>W</v>
       </c>
       <c r="AU6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>T</v>
       </c>
       <c r="AV6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>F</v>
       </c>
       <c r="AW6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>S</v>
       </c>
       <c r="AX6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>S</v>
       </c>
       <c r="AY6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>M</v>
       </c>
       <c r="AZ6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>T</v>
       </c>
       <c r="BA6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>W</v>
       </c>
       <c r="BB6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>T</v>
       </c>
       <c r="BC6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>F</v>
       </c>
       <c r="BD6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>S</v>
       </c>
       <c r="BE6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>S</v>
       </c>
       <c r="BF6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>M</v>
       </c>
       <c r="BG6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>T</v>
       </c>
       <c r="BH6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>W</v>
       </c>
       <c r="BI6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>T</v>
       </c>
       <c r="BJ6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>F</v>
       </c>
       <c r="BK6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>S</v>
       </c>
       <c r="BL6" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="111"/>
         <v>S</v>
       </c>
       <c r="BM6" s="12" t="str">
-        <f t="shared" ref="BM6:BZ6" si="16">LEFT(TEXT(BM5,"ddd"),1)</f>
+        <f t="shared" ref="BM6:BZ6" si="112">LEFT(TEXT(BM5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="BN6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>T</v>
       </c>
       <c r="BO6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>W</v>
       </c>
       <c r="BP6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>T</v>
       </c>
       <c r="BQ6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>F</v>
       </c>
       <c r="BR6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>S</v>
       </c>
       <c r="BS6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>S</v>
       </c>
       <c r="BT6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>M</v>
       </c>
       <c r="BU6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>T</v>
       </c>
       <c r="BV6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>W</v>
       </c>
       <c r="BW6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>T</v>
       </c>
       <c r="BX6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>F</v>
       </c>
       <c r="BY6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>S</v>
       </c>
       <c r="BZ6" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="112"/>
         <v>S</v>
       </c>
+      <c r="CA6" s="12" t="str">
+        <f t="shared" ref="CA6:EL6" si="113">LEFT(TEXT(CA5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="CB6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="CC6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>W</v>
+      </c>
+      <c r="CD6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="CE6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>F</v>
+      </c>
+      <c r="CF6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="CG6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="CH6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>M</v>
+      </c>
+      <c r="CI6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="CJ6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>W</v>
+      </c>
+      <c r="CK6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="CL6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>F</v>
+      </c>
+      <c r="CM6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="CN6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="CO6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>M</v>
+      </c>
+      <c r="CP6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="CQ6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>W</v>
+      </c>
+      <c r="CR6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="CS6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>F</v>
+      </c>
+      <c r="CT6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="CU6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="CV6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>M</v>
+      </c>
+      <c r="CW6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="CX6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>W</v>
+      </c>
+      <c r="CY6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="CZ6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>F</v>
+      </c>
+      <c r="DA6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="DB6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="DC6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>M</v>
+      </c>
+      <c r="DD6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="DE6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>W</v>
+      </c>
+      <c r="DF6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="DG6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>F</v>
+      </c>
+      <c r="DH6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="DI6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="DJ6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>M</v>
+      </c>
+      <c r="DK6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="DL6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>W</v>
+      </c>
+      <c r="DM6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="DN6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>F</v>
+      </c>
+      <c r="DO6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="DP6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="DQ6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>M</v>
+      </c>
+      <c r="DR6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="DS6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>W</v>
+      </c>
+      <c r="DT6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="DU6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>F</v>
+      </c>
+      <c r="DV6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="DW6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="DX6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>M</v>
+      </c>
+      <c r="DY6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="DZ6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>W</v>
+      </c>
+      <c r="EA6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="EB6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>F</v>
+      </c>
+      <c r="EC6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="ED6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="EE6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>M</v>
+      </c>
+      <c r="EF6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="EG6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>W</v>
+      </c>
+      <c r="EH6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>T</v>
+      </c>
+      <c r="EI6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>F</v>
+      </c>
+      <c r="EJ6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="EK6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>S</v>
+      </c>
+      <c r="EL6" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v>M</v>
+      </c>
+      <c r="EM6" s="12" t="str">
+        <f t="shared" ref="EM6:GA6" si="114">LEFT(TEXT(EM5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="EN6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>W</v>
+      </c>
+      <c r="EO6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>T</v>
+      </c>
+      <c r="EP6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>F</v>
+      </c>
+      <c r="EQ6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="ER6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="ES6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>M</v>
+      </c>
+      <c r="ET6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>T</v>
+      </c>
+      <c r="EU6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>W</v>
+      </c>
+      <c r="EV6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>T</v>
+      </c>
+      <c r="EW6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>F</v>
+      </c>
+      <c r="EX6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="EY6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="EZ6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>M</v>
+      </c>
+      <c r="FA6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>T</v>
+      </c>
+      <c r="FB6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>W</v>
+      </c>
+      <c r="FC6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>T</v>
+      </c>
+      <c r="FD6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>F</v>
+      </c>
+      <c r="FE6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="FF6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="FG6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>M</v>
+      </c>
+      <c r="FH6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>T</v>
+      </c>
+      <c r="FI6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>W</v>
+      </c>
+      <c r="FJ6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>T</v>
+      </c>
+      <c r="FK6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>F</v>
+      </c>
+      <c r="FL6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="FM6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="FN6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>M</v>
+      </c>
+      <c r="FO6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>T</v>
+      </c>
+      <c r="FP6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>W</v>
+      </c>
+      <c r="FQ6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>T</v>
+      </c>
+      <c r="FR6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>F</v>
+      </c>
+      <c r="FS6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="FT6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="FU6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>M</v>
+      </c>
+      <c r="FV6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>T</v>
+      </c>
+      <c r="FW6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>W</v>
+      </c>
+      <c r="FX6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>T</v>
+      </c>
+      <c r="FY6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>F</v>
+      </c>
+      <c r="FZ6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="GA6" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v>S</v>
+      </c>
+      <c r="GB6" s="12" t="str">
+        <f t="shared" ref="GB6:GH6" si="115">LEFT(TEXT(GB5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="GC6" s="12" t="str">
+        <f t="shared" si="115"/>
+        <v>T</v>
+      </c>
+      <c r="GD6" s="12" t="str">
+        <f t="shared" si="115"/>
+        <v>W</v>
+      </c>
+      <c r="GE6" s="12" t="str">
+        <f t="shared" si="115"/>
+        <v>T</v>
+      </c>
+      <c r="GF6" s="12" t="str">
+        <f t="shared" si="115"/>
+        <v>F</v>
+      </c>
+      <c r="GG6" s="12" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
+      <c r="GH6" s="12" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
     </row>
-    <row r="7" spans="1:78" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:190" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="41"/>
       <c r="E7"/>
@@ -2177,13 +3395,125 @@
       <c r="BX7" s="35"/>
       <c r="BY7" s="35"/>
       <c r="BZ7" s="35"/>
+      <c r="CA7" s="35"/>
+      <c r="CB7" s="35"/>
+      <c r="CC7" s="35"/>
+      <c r="CD7" s="35"/>
+      <c r="CE7" s="35"/>
+      <c r="CF7" s="35"/>
+      <c r="CG7" s="35"/>
+      <c r="CH7" s="35"/>
+      <c r="CI7" s="35"/>
+      <c r="CJ7" s="35"/>
+      <c r="CK7" s="35"/>
+      <c r="CL7" s="35"/>
+      <c r="CM7" s="35"/>
+      <c r="CN7" s="35"/>
+      <c r="CO7" s="35"/>
+      <c r="CP7" s="35"/>
+      <c r="CQ7" s="35"/>
+      <c r="CR7" s="35"/>
+      <c r="CS7" s="35"/>
+      <c r="CT7" s="35"/>
+      <c r="CU7" s="35"/>
+      <c r="CV7" s="35"/>
+      <c r="CW7" s="35"/>
+      <c r="CX7" s="35"/>
+      <c r="CY7" s="35"/>
+      <c r="CZ7" s="35"/>
+      <c r="DA7" s="35"/>
+      <c r="DB7" s="35"/>
+      <c r="DC7" s="35"/>
+      <c r="DD7" s="35"/>
+      <c r="DE7" s="35"/>
+      <c r="DF7" s="35"/>
+      <c r="DG7" s="35"/>
+      <c r="DH7" s="35"/>
+      <c r="DI7" s="35"/>
+      <c r="DJ7" s="35"/>
+      <c r="DK7" s="35"/>
+      <c r="DL7" s="35"/>
+      <c r="DM7" s="35"/>
+      <c r="DN7" s="35"/>
+      <c r="DO7" s="35"/>
+      <c r="DP7" s="35"/>
+      <c r="DQ7" s="35"/>
+      <c r="DR7" s="35"/>
+      <c r="DS7" s="35"/>
+      <c r="DT7" s="35"/>
+      <c r="DU7" s="35"/>
+      <c r="DV7" s="35"/>
+      <c r="DW7" s="35"/>
+      <c r="DX7" s="35"/>
+      <c r="DY7" s="35"/>
+      <c r="DZ7" s="35"/>
+      <c r="EA7" s="35"/>
+      <c r="EB7" s="35"/>
+      <c r="EC7" s="35"/>
+      <c r="ED7" s="35"/>
+      <c r="EE7" s="35"/>
+      <c r="EF7" s="35"/>
+      <c r="EG7" s="35"/>
+      <c r="EH7" s="35"/>
+      <c r="EI7" s="35"/>
+      <c r="EJ7" s="35"/>
+      <c r="EK7" s="35"/>
+      <c r="EL7" s="35"/>
+      <c r="EM7" s="35"/>
+      <c r="EN7" s="35"/>
+      <c r="EO7" s="35"/>
+      <c r="EP7" s="35"/>
+      <c r="EQ7" s="35"/>
+      <c r="ER7" s="35"/>
+      <c r="ES7" s="35"/>
+      <c r="ET7" s="35"/>
+      <c r="EU7" s="35"/>
+      <c r="EV7" s="35"/>
+      <c r="EW7" s="35"/>
+      <c r="EX7" s="35"/>
+      <c r="EY7" s="35"/>
+      <c r="EZ7" s="35"/>
+      <c r="FA7" s="35"/>
+      <c r="FB7" s="35"/>
+      <c r="FC7" s="35"/>
+      <c r="FD7" s="35"/>
+      <c r="FE7" s="35"/>
+      <c r="FF7" s="35"/>
+      <c r="FG7" s="35"/>
+      <c r="FH7" s="35"/>
+      <c r="FI7" s="35"/>
+      <c r="FJ7" s="35"/>
+      <c r="FK7" s="35"/>
+      <c r="FL7" s="35"/>
+      <c r="FM7" s="35"/>
+      <c r="FN7" s="35"/>
+      <c r="FO7" s="35"/>
+      <c r="FP7" s="35"/>
+      <c r="FQ7" s="35"/>
+      <c r="FR7" s="35"/>
+      <c r="FS7" s="35"/>
+      <c r="FT7" s="35"/>
+      <c r="FU7" s="35"/>
+      <c r="FV7" s="35"/>
+      <c r="FW7" s="35"/>
+      <c r="FX7" s="35"/>
+      <c r="FY7" s="35"/>
+      <c r="FZ7" s="35"/>
+      <c r="GA7" s="35"/>
+      <c r="GB7" s="35"/>
+      <c r="GC7" s="35"/>
+      <c r="GD7" s="35"/>
+      <c r="GE7" s="35"/>
+      <c r="GF7" s="35"/>
+      <c r="GG7" s="35"/>
+      <c r="GH7" s="35"/>
     </row>
-    <row r="8" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:190" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="16"/>
@@ -2191,7 +3521,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H33" si="17">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H27" si="116">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -2264,16 +3594,128 @@
       <c r="BX8" s="35"/>
       <c r="BY8" s="35"/>
       <c r="BZ8" s="35"/>
+      <c r="CA8" s="35"/>
+      <c r="CB8" s="35"/>
+      <c r="CC8" s="35"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="35"/>
+      <c r="CF8" s="35"/>
+      <c r="CG8" s="35"/>
+      <c r="CH8" s="35"/>
+      <c r="CI8" s="35"/>
+      <c r="CJ8" s="35"/>
+      <c r="CK8" s="35"/>
+      <c r="CL8" s="35"/>
+      <c r="CM8" s="35"/>
+      <c r="CN8" s="35"/>
+      <c r="CO8" s="35"/>
+      <c r="CP8" s="35"/>
+      <c r="CQ8" s="35"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="35"/>
+      <c r="CT8" s="35"/>
+      <c r="CU8" s="35"/>
+      <c r="CV8" s="35"/>
+      <c r="CW8" s="35"/>
+      <c r="CX8" s="35"/>
+      <c r="CY8" s="35"/>
+      <c r="CZ8" s="35"/>
+      <c r="DA8" s="35"/>
+      <c r="DB8" s="35"/>
+      <c r="DC8" s="35"/>
+      <c r="DD8" s="35"/>
+      <c r="DE8" s="35"/>
+      <c r="DF8" s="35"/>
+      <c r="DG8" s="35"/>
+      <c r="DH8" s="35"/>
+      <c r="DI8" s="35"/>
+      <c r="DJ8" s="35"/>
+      <c r="DK8" s="35"/>
+      <c r="DL8" s="35"/>
+      <c r="DM8" s="35"/>
+      <c r="DN8" s="35"/>
+      <c r="DO8" s="35"/>
+      <c r="DP8" s="35"/>
+      <c r="DQ8" s="35"/>
+      <c r="DR8" s="35"/>
+      <c r="DS8" s="35"/>
+      <c r="DT8" s="35"/>
+      <c r="DU8" s="35"/>
+      <c r="DV8" s="35"/>
+      <c r="DW8" s="35"/>
+      <c r="DX8" s="35"/>
+      <c r="DY8" s="35"/>
+      <c r="DZ8" s="35"/>
+      <c r="EA8" s="35"/>
+      <c r="EB8" s="35"/>
+      <c r="EC8" s="35"/>
+      <c r="ED8" s="35"/>
+      <c r="EE8" s="35"/>
+      <c r="EF8" s="35"/>
+      <c r="EG8" s="35"/>
+      <c r="EH8" s="35"/>
+      <c r="EI8" s="35"/>
+      <c r="EJ8" s="35"/>
+      <c r="EK8" s="35"/>
+      <c r="EL8" s="35"/>
+      <c r="EM8" s="35"/>
+      <c r="EN8" s="35"/>
+      <c r="EO8" s="35"/>
+      <c r="EP8" s="35"/>
+      <c r="EQ8" s="35"/>
+      <c r="ER8" s="35"/>
+      <c r="ES8" s="35"/>
+      <c r="ET8" s="35"/>
+      <c r="EU8" s="35"/>
+      <c r="EV8" s="35"/>
+      <c r="EW8" s="35"/>
+      <c r="EX8" s="35"/>
+      <c r="EY8" s="35"/>
+      <c r="EZ8" s="35"/>
+      <c r="FA8" s="35"/>
+      <c r="FB8" s="35"/>
+      <c r="FC8" s="35"/>
+      <c r="FD8" s="35"/>
+      <c r="FE8" s="35"/>
+      <c r="FF8" s="35"/>
+      <c r="FG8" s="35"/>
+      <c r="FH8" s="35"/>
+      <c r="FI8" s="35"/>
+      <c r="FJ8" s="35"/>
+      <c r="FK8" s="35"/>
+      <c r="FL8" s="35"/>
+      <c r="FM8" s="35"/>
+      <c r="FN8" s="35"/>
+      <c r="FO8" s="35"/>
+      <c r="FP8" s="35"/>
+      <c r="FQ8" s="35"/>
+      <c r="FR8" s="35"/>
+      <c r="FS8" s="35"/>
+      <c r="FT8" s="35"/>
+      <c r="FU8" s="35"/>
+      <c r="FV8" s="35"/>
+      <c r="FW8" s="35"/>
+      <c r="FX8" s="35"/>
+      <c r="FY8" s="35"/>
+      <c r="FZ8" s="35"/>
+      <c r="GA8" s="35"/>
+      <c r="GB8" s="35"/>
+      <c r="GC8" s="35"/>
+      <c r="GD8" s="35"/>
+      <c r="GE8" s="35"/>
+      <c r="GF8" s="35"/>
+      <c r="GG8" s="35"/>
+      <c r="GH8" s="35"/>
     </row>
-    <row r="9" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:190" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>28</v>
-      </c>
       <c r="C9" s="53" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="19">
         <v>1</v>
@@ -2288,7 +3730,7 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v>1</v>
       </c>
       <c r="I9" s="35"/>
@@ -2361,13 +3803,125 @@
       <c r="BX9" s="35"/>
       <c r="BY9" s="35"/>
       <c r="BZ9" s="35"/>
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="35"/>
+      <c r="CI9" s="35"/>
+      <c r="CJ9" s="35"/>
+      <c r="CK9" s="35"/>
+      <c r="CL9" s="35"/>
+      <c r="CM9" s="35"/>
+      <c r="CN9" s="35"/>
+      <c r="CO9" s="35"/>
+      <c r="CP9" s="35"/>
+      <c r="CQ9" s="35"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="35"/>
+      <c r="CT9" s="35"/>
+      <c r="CU9" s="35"/>
+      <c r="CV9" s="35"/>
+      <c r="CW9" s="35"/>
+      <c r="CX9" s="35"/>
+      <c r="CY9" s="35"/>
+      <c r="CZ9" s="35"/>
+      <c r="DA9" s="35"/>
+      <c r="DB9" s="35"/>
+      <c r="DC9" s="35"/>
+      <c r="DD9" s="35"/>
+      <c r="DE9" s="35"/>
+      <c r="DF9" s="35"/>
+      <c r="DG9" s="35"/>
+      <c r="DH9" s="35"/>
+      <c r="DI9" s="35"/>
+      <c r="DJ9" s="35"/>
+      <c r="DK9" s="35"/>
+      <c r="DL9" s="35"/>
+      <c r="DM9" s="35"/>
+      <c r="DN9" s="35"/>
+      <c r="DO9" s="35"/>
+      <c r="DP9" s="35"/>
+      <c r="DQ9" s="35"/>
+      <c r="DR9" s="35"/>
+      <c r="DS9" s="35"/>
+      <c r="DT9" s="35"/>
+      <c r="DU9" s="35"/>
+      <c r="DV9" s="35"/>
+      <c r="DW9" s="35"/>
+      <c r="DX9" s="35"/>
+      <c r="DY9" s="35"/>
+      <c r="DZ9" s="35"/>
+      <c r="EA9" s="35"/>
+      <c r="EB9" s="35"/>
+      <c r="EC9" s="35"/>
+      <c r="ED9" s="35"/>
+      <c r="EE9" s="35"/>
+      <c r="EF9" s="35"/>
+      <c r="EG9" s="35"/>
+      <c r="EH9" s="35"/>
+      <c r="EI9" s="35"/>
+      <c r="EJ9" s="35"/>
+      <c r="EK9" s="35"/>
+      <c r="EL9" s="35"/>
+      <c r="EM9" s="35"/>
+      <c r="EN9" s="35"/>
+      <c r="EO9" s="35"/>
+      <c r="EP9" s="35"/>
+      <c r="EQ9" s="35"/>
+      <c r="ER9" s="35"/>
+      <c r="ES9" s="35"/>
+      <c r="ET9" s="35"/>
+      <c r="EU9" s="35"/>
+      <c r="EV9" s="35"/>
+      <c r="EW9" s="35"/>
+      <c r="EX9" s="35"/>
+      <c r="EY9" s="35"/>
+      <c r="EZ9" s="35"/>
+      <c r="FA9" s="35"/>
+      <c r="FB9" s="35"/>
+      <c r="FC9" s="35"/>
+      <c r="FD9" s="35"/>
+      <c r="FE9" s="35"/>
+      <c r="FF9" s="35"/>
+      <c r="FG9" s="35"/>
+      <c r="FH9" s="35"/>
+      <c r="FI9" s="35"/>
+      <c r="FJ9" s="35"/>
+      <c r="FK9" s="35"/>
+      <c r="FL9" s="35"/>
+      <c r="FM9" s="35"/>
+      <c r="FN9" s="35"/>
+      <c r="FO9" s="35"/>
+      <c r="FP9" s="35"/>
+      <c r="FQ9" s="35"/>
+      <c r="FR9" s="35"/>
+      <c r="FS9" s="35"/>
+      <c r="FT9" s="35"/>
+      <c r="FU9" s="35"/>
+      <c r="FV9" s="35"/>
+      <c r="FW9" s="35"/>
+      <c r="FX9" s="35"/>
+      <c r="FY9" s="35"/>
+      <c r="FZ9" s="35"/>
+      <c r="GA9" s="35"/>
+      <c r="GB9" s="35"/>
+      <c r="GC9" s="35"/>
+      <c r="GD9" s="35"/>
+      <c r="GE9" s="35"/>
+      <c r="GF9" s="35"/>
+      <c r="GG9" s="35"/>
+      <c r="GH9" s="35"/>
     </row>
-    <row r="10" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:190" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="21"/>
@@ -2375,7 +3929,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="I10" s="35"/>
@@ -2448,14 +4002,126 @@
       <c r="BX10" s="35"/>
       <c r="BY10" s="35"/>
       <c r="BZ10" s="35"/>
+      <c r="CA10" s="35"/>
+      <c r="CB10" s="35"/>
+      <c r="CC10" s="35"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="35"/>
+      <c r="CF10" s="35"/>
+      <c r="CG10" s="35"/>
+      <c r="CH10" s="35"/>
+      <c r="CI10" s="35"/>
+      <c r="CJ10" s="35"/>
+      <c r="CK10" s="35"/>
+      <c r="CL10" s="35"/>
+      <c r="CM10" s="35"/>
+      <c r="CN10" s="35"/>
+      <c r="CO10" s="35"/>
+      <c r="CP10" s="35"/>
+      <c r="CQ10" s="35"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="35"/>
+      <c r="CT10" s="35"/>
+      <c r="CU10" s="35"/>
+      <c r="CV10" s="35"/>
+      <c r="CW10" s="35"/>
+      <c r="CX10" s="35"/>
+      <c r="CY10" s="35"/>
+      <c r="CZ10" s="35"/>
+      <c r="DA10" s="35"/>
+      <c r="DB10" s="35"/>
+      <c r="DC10" s="35"/>
+      <c r="DD10" s="35"/>
+      <c r="DE10" s="35"/>
+      <c r="DF10" s="35"/>
+      <c r="DG10" s="35"/>
+      <c r="DH10" s="35"/>
+      <c r="DI10" s="35"/>
+      <c r="DJ10" s="35"/>
+      <c r="DK10" s="35"/>
+      <c r="DL10" s="35"/>
+      <c r="DM10" s="35"/>
+      <c r="DN10" s="35"/>
+      <c r="DO10" s="35"/>
+      <c r="DP10" s="35"/>
+      <c r="DQ10" s="35"/>
+      <c r="DR10" s="35"/>
+      <c r="DS10" s="35"/>
+      <c r="DT10" s="35"/>
+      <c r="DU10" s="35"/>
+      <c r="DV10" s="35"/>
+      <c r="DW10" s="35"/>
+      <c r="DX10" s="35"/>
+      <c r="DY10" s="35"/>
+      <c r="DZ10" s="35"/>
+      <c r="EA10" s="35"/>
+      <c r="EB10" s="35"/>
+      <c r="EC10" s="35"/>
+      <c r="ED10" s="35"/>
+      <c r="EE10" s="35"/>
+      <c r="EF10" s="35"/>
+      <c r="EG10" s="35"/>
+      <c r="EH10" s="35"/>
+      <c r="EI10" s="35"/>
+      <c r="EJ10" s="35"/>
+      <c r="EK10" s="35"/>
+      <c r="EL10" s="35"/>
+      <c r="EM10" s="35"/>
+      <c r="EN10" s="35"/>
+      <c r="EO10" s="35"/>
+      <c r="EP10" s="35"/>
+      <c r="EQ10" s="35"/>
+      <c r="ER10" s="35"/>
+      <c r="ES10" s="35"/>
+      <c r="ET10" s="35"/>
+      <c r="EU10" s="35"/>
+      <c r="EV10" s="35"/>
+      <c r="EW10" s="35"/>
+      <c r="EX10" s="35"/>
+      <c r="EY10" s="35"/>
+      <c r="EZ10" s="35"/>
+      <c r="FA10" s="35"/>
+      <c r="FB10" s="35"/>
+      <c r="FC10" s="35"/>
+      <c r="FD10" s="35"/>
+      <c r="FE10" s="35"/>
+      <c r="FF10" s="35"/>
+      <c r="FG10" s="35"/>
+      <c r="FH10" s="35"/>
+      <c r="FI10" s="35"/>
+      <c r="FJ10" s="35"/>
+      <c r="FK10" s="35"/>
+      <c r="FL10" s="35"/>
+      <c r="FM10" s="35"/>
+      <c r="FN10" s="35"/>
+      <c r="FO10" s="35"/>
+      <c r="FP10" s="35"/>
+      <c r="FQ10" s="35"/>
+      <c r="FR10" s="35"/>
+      <c r="FS10" s="35"/>
+      <c r="FT10" s="35"/>
+      <c r="FU10" s="35"/>
+      <c r="FV10" s="35"/>
+      <c r="FW10" s="35"/>
+      <c r="FX10" s="35"/>
+      <c r="FY10" s="35"/>
+      <c r="FZ10" s="35"/>
+      <c r="GA10" s="35"/>
+      <c r="GB10" s="35"/>
+      <c r="GC10" s="35"/>
+      <c r="GD10" s="35"/>
+      <c r="GE10" s="35"/>
+      <c r="GF10" s="35"/>
+      <c r="GG10" s="35"/>
+      <c r="GH10" s="35"/>
     </row>
-    <row r="11" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:190" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39"/>
       <c r="B11" s="56" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
@@ -2468,7 +4134,7 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v>1</v>
       </c>
       <c r="I11" s="35"/>
@@ -2541,19 +4207,131 @@
       <c r="BX11" s="35"/>
       <c r="BY11" s="35"/>
       <c r="BZ11" s="35"/>
+      <c r="CA11" s="35"/>
+      <c r="CB11" s="35"/>
+      <c r="CC11" s="35"/>
+      <c r="CD11" s="35"/>
+      <c r="CE11" s="35"/>
+      <c r="CF11" s="35"/>
+      <c r="CG11" s="35"/>
+      <c r="CH11" s="35"/>
+      <c r="CI11" s="35"/>
+      <c r="CJ11" s="35"/>
+      <c r="CK11" s="35"/>
+      <c r="CL11" s="35"/>
+      <c r="CM11" s="35"/>
+      <c r="CN11" s="35"/>
+      <c r="CO11" s="35"/>
+      <c r="CP11" s="35"/>
+      <c r="CQ11" s="35"/>
+      <c r="CR11" s="35"/>
+      <c r="CS11" s="35"/>
+      <c r="CT11" s="35"/>
+      <c r="CU11" s="35"/>
+      <c r="CV11" s="35"/>
+      <c r="CW11" s="35"/>
+      <c r="CX11" s="35"/>
+      <c r="CY11" s="35"/>
+      <c r="CZ11" s="35"/>
+      <c r="DA11" s="35"/>
+      <c r="DB11" s="35"/>
+      <c r="DC11" s="35"/>
+      <c r="DD11" s="35"/>
+      <c r="DE11" s="35"/>
+      <c r="DF11" s="35"/>
+      <c r="DG11" s="35"/>
+      <c r="DH11" s="35"/>
+      <c r="DI11" s="35"/>
+      <c r="DJ11" s="35"/>
+      <c r="DK11" s="35"/>
+      <c r="DL11" s="35"/>
+      <c r="DM11" s="35"/>
+      <c r="DN11" s="35"/>
+      <c r="DO11" s="35"/>
+      <c r="DP11" s="35"/>
+      <c r="DQ11" s="35"/>
+      <c r="DR11" s="35"/>
+      <c r="DS11" s="35"/>
+      <c r="DT11" s="35"/>
+      <c r="DU11" s="35"/>
+      <c r="DV11" s="35"/>
+      <c r="DW11" s="35"/>
+      <c r="DX11" s="35"/>
+      <c r="DY11" s="35"/>
+      <c r="DZ11" s="35"/>
+      <c r="EA11" s="35"/>
+      <c r="EB11" s="35"/>
+      <c r="EC11" s="35"/>
+      <c r="ED11" s="35"/>
+      <c r="EE11" s="35"/>
+      <c r="EF11" s="35"/>
+      <c r="EG11" s="35"/>
+      <c r="EH11" s="35"/>
+      <c r="EI11" s="35"/>
+      <c r="EJ11" s="35"/>
+      <c r="EK11" s="35"/>
+      <c r="EL11" s="35"/>
+      <c r="EM11" s="35"/>
+      <c r="EN11" s="35"/>
+      <c r="EO11" s="35"/>
+      <c r="EP11" s="35"/>
+      <c r="EQ11" s="35"/>
+      <c r="ER11" s="35"/>
+      <c r="ES11" s="35"/>
+      <c r="ET11" s="35"/>
+      <c r="EU11" s="35"/>
+      <c r="EV11" s="35"/>
+      <c r="EW11" s="35"/>
+      <c r="EX11" s="35"/>
+      <c r="EY11" s="35"/>
+      <c r="EZ11" s="35"/>
+      <c r="FA11" s="35"/>
+      <c r="FB11" s="35"/>
+      <c r="FC11" s="35"/>
+      <c r="FD11" s="35"/>
+      <c r="FE11" s="35"/>
+      <c r="FF11" s="35"/>
+      <c r="FG11" s="35"/>
+      <c r="FH11" s="35"/>
+      <c r="FI11" s="35"/>
+      <c r="FJ11" s="35"/>
+      <c r="FK11" s="35"/>
+      <c r="FL11" s="35"/>
+      <c r="FM11" s="35"/>
+      <c r="FN11" s="35"/>
+      <c r="FO11" s="35"/>
+      <c r="FP11" s="35"/>
+      <c r="FQ11" s="35"/>
+      <c r="FR11" s="35"/>
+      <c r="FS11" s="35"/>
+      <c r="FT11" s="35"/>
+      <c r="FU11" s="35"/>
+      <c r="FV11" s="35"/>
+      <c r="FW11" s="35"/>
+      <c r="FX11" s="35"/>
+      <c r="FY11" s="35"/>
+      <c r="FZ11" s="35"/>
+      <c r="GA11" s="35"/>
+      <c r="GB11" s="35"/>
+      <c r="GC11" s="35"/>
+      <c r="GD11" s="35"/>
+      <c r="GE11" s="35"/>
+      <c r="GF11" s="35"/>
+      <c r="GG11" s="35"/>
+      <c r="GH11" s="35"/>
     </row>
-    <row r="12" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:190" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38"/>
       <c r="B12" s="56" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="24">
         <v>0.75</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="59">
         <v>43385</v>
       </c>
       <c r="F12" s="46">
@@ -2561,7 +4339,7 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v>57</v>
       </c>
       <c r="I12" s="35"/>
@@ -2634,11 +4412,123 @@
       <c r="BX12" s="35"/>
       <c r="BY12" s="35"/>
       <c r="BZ12" s="35"/>
+      <c r="CA12" s="35"/>
+      <c r="CB12" s="35"/>
+      <c r="CC12" s="35"/>
+      <c r="CD12" s="35"/>
+      <c r="CE12" s="35"/>
+      <c r="CF12" s="35"/>
+      <c r="CG12" s="35"/>
+      <c r="CH12" s="35"/>
+      <c r="CI12" s="35"/>
+      <c r="CJ12" s="35"/>
+      <c r="CK12" s="35"/>
+      <c r="CL12" s="35"/>
+      <c r="CM12" s="35"/>
+      <c r="CN12" s="35"/>
+      <c r="CO12" s="35"/>
+      <c r="CP12" s="35"/>
+      <c r="CQ12" s="35"/>
+      <c r="CR12" s="35"/>
+      <c r="CS12" s="35"/>
+      <c r="CT12" s="35"/>
+      <c r="CU12" s="35"/>
+      <c r="CV12" s="35"/>
+      <c r="CW12" s="35"/>
+      <c r="CX12" s="35"/>
+      <c r="CY12" s="35"/>
+      <c r="CZ12" s="35"/>
+      <c r="DA12" s="35"/>
+      <c r="DB12" s="35"/>
+      <c r="DC12" s="35"/>
+      <c r="DD12" s="35"/>
+      <c r="DE12" s="35"/>
+      <c r="DF12" s="35"/>
+      <c r="DG12" s="35"/>
+      <c r="DH12" s="35"/>
+      <c r="DI12" s="35"/>
+      <c r="DJ12" s="35"/>
+      <c r="DK12" s="35"/>
+      <c r="DL12" s="35"/>
+      <c r="DM12" s="35"/>
+      <c r="DN12" s="35"/>
+      <c r="DO12" s="35"/>
+      <c r="DP12" s="35"/>
+      <c r="DQ12" s="35"/>
+      <c r="DR12" s="35"/>
+      <c r="DS12" s="35"/>
+      <c r="DT12" s="35"/>
+      <c r="DU12" s="35"/>
+      <c r="DV12" s="35"/>
+      <c r="DW12" s="35"/>
+      <c r="DX12" s="35"/>
+      <c r="DY12" s="35"/>
+      <c r="DZ12" s="35"/>
+      <c r="EA12" s="35"/>
+      <c r="EB12" s="35"/>
+      <c r="EC12" s="35"/>
+      <c r="ED12" s="35"/>
+      <c r="EE12" s="35"/>
+      <c r="EF12" s="35"/>
+      <c r="EG12" s="35"/>
+      <c r="EH12" s="35"/>
+      <c r="EI12" s="35"/>
+      <c r="EJ12" s="35"/>
+      <c r="EK12" s="35"/>
+      <c r="EL12" s="35"/>
+      <c r="EM12" s="35"/>
+      <c r="EN12" s="35"/>
+      <c r="EO12" s="35"/>
+      <c r="EP12" s="35"/>
+      <c r="EQ12" s="35"/>
+      <c r="ER12" s="35"/>
+      <c r="ES12" s="35"/>
+      <c r="ET12" s="35"/>
+      <c r="EU12" s="35"/>
+      <c r="EV12" s="35"/>
+      <c r="EW12" s="35"/>
+      <c r="EX12" s="35"/>
+      <c r="EY12" s="35"/>
+      <c r="EZ12" s="35"/>
+      <c r="FA12" s="35"/>
+      <c r="FB12" s="35"/>
+      <c r="FC12" s="35"/>
+      <c r="FD12" s="35"/>
+      <c r="FE12" s="35"/>
+      <c r="FF12" s="35"/>
+      <c r="FG12" s="35"/>
+      <c r="FH12" s="35"/>
+      <c r="FI12" s="35"/>
+      <c r="FJ12" s="35"/>
+      <c r="FK12" s="35"/>
+      <c r="FL12" s="35"/>
+      <c r="FM12" s="35"/>
+      <c r="FN12" s="35"/>
+      <c r="FO12" s="35"/>
+      <c r="FP12" s="35"/>
+      <c r="FQ12" s="35"/>
+      <c r="FR12" s="35"/>
+      <c r="FS12" s="35"/>
+      <c r="FT12" s="35"/>
+      <c r="FU12" s="35"/>
+      <c r="FV12" s="35"/>
+      <c r="FW12" s="35"/>
+      <c r="FX12" s="35"/>
+      <c r="FY12" s="35"/>
+      <c r="FZ12" s="35"/>
+      <c r="GA12" s="35"/>
+      <c r="GB12" s="35"/>
+      <c r="GC12" s="35"/>
+      <c r="GD12" s="35"/>
+      <c r="GE12" s="35"/>
+      <c r="GF12" s="35"/>
+      <c r="GG12" s="35"/>
+      <c r="GH12" s="35"/>
     </row>
-    <row r="13" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:190" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38"/>
       <c r="B13" s="25" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="26"/>
@@ -2646,7 +4536,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="I13" s="35"/>
@@ -2719,19 +4609,131 @@
       <c r="BX13" s="35"/>
       <c r="BY13" s="35"/>
       <c r="BZ13" s="35"/>
+      <c r="CA13" s="35"/>
+      <c r="CB13" s="35"/>
+      <c r="CC13" s="35"/>
+      <c r="CD13" s="35"/>
+      <c r="CE13" s="35"/>
+      <c r="CF13" s="35"/>
+      <c r="CG13" s="35"/>
+      <c r="CH13" s="35"/>
+      <c r="CI13" s="35"/>
+      <c r="CJ13" s="35"/>
+      <c r="CK13" s="35"/>
+      <c r="CL13" s="35"/>
+      <c r="CM13" s="35"/>
+      <c r="CN13" s="35"/>
+      <c r="CO13" s="35"/>
+      <c r="CP13" s="35"/>
+      <c r="CQ13" s="35"/>
+      <c r="CR13" s="35"/>
+      <c r="CS13" s="35"/>
+      <c r="CT13" s="35"/>
+      <c r="CU13" s="35"/>
+      <c r="CV13" s="35"/>
+      <c r="CW13" s="35"/>
+      <c r="CX13" s="35"/>
+      <c r="CY13" s="35"/>
+      <c r="CZ13" s="35"/>
+      <c r="DA13" s="35"/>
+      <c r="DB13" s="35"/>
+      <c r="DC13" s="35"/>
+      <c r="DD13" s="35"/>
+      <c r="DE13" s="35"/>
+      <c r="DF13" s="35"/>
+      <c r="DG13" s="35"/>
+      <c r="DH13" s="35"/>
+      <c r="DI13" s="35"/>
+      <c r="DJ13" s="35"/>
+      <c r="DK13" s="35"/>
+      <c r="DL13" s="35"/>
+      <c r="DM13" s="35"/>
+      <c r="DN13" s="35"/>
+      <c r="DO13" s="35"/>
+      <c r="DP13" s="35"/>
+      <c r="DQ13" s="35"/>
+      <c r="DR13" s="35"/>
+      <c r="DS13" s="35"/>
+      <c r="DT13" s="35"/>
+      <c r="DU13" s="35"/>
+      <c r="DV13" s="35"/>
+      <c r="DW13" s="35"/>
+      <c r="DX13" s="35"/>
+      <c r="DY13" s="35"/>
+      <c r="DZ13" s="35"/>
+      <c r="EA13" s="35"/>
+      <c r="EB13" s="35"/>
+      <c r="EC13" s="35"/>
+      <c r="ED13" s="35"/>
+      <c r="EE13" s="35"/>
+      <c r="EF13" s="35"/>
+      <c r="EG13" s="35"/>
+      <c r="EH13" s="35"/>
+      <c r="EI13" s="35"/>
+      <c r="EJ13" s="35"/>
+      <c r="EK13" s="35"/>
+      <c r="EL13" s="35"/>
+      <c r="EM13" s="35"/>
+      <c r="EN13" s="35"/>
+      <c r="EO13" s="35"/>
+      <c r="EP13" s="35"/>
+      <c r="EQ13" s="35"/>
+      <c r="ER13" s="35"/>
+      <c r="ES13" s="35"/>
+      <c r="ET13" s="35"/>
+      <c r="EU13" s="35"/>
+      <c r="EV13" s="35"/>
+      <c r="EW13" s="35"/>
+      <c r="EX13" s="35"/>
+      <c r="EY13" s="35"/>
+      <c r="EZ13" s="35"/>
+      <c r="FA13" s="35"/>
+      <c r="FB13" s="35"/>
+      <c r="FC13" s="35"/>
+      <c r="FD13" s="35"/>
+      <c r="FE13" s="35"/>
+      <c r="FF13" s="35"/>
+      <c r="FG13" s="35"/>
+      <c r="FH13" s="35"/>
+      <c r="FI13" s="35"/>
+      <c r="FJ13" s="35"/>
+      <c r="FK13" s="35"/>
+      <c r="FL13" s="35"/>
+      <c r="FM13" s="35"/>
+      <c r="FN13" s="35"/>
+      <c r="FO13" s="35"/>
+      <c r="FP13" s="35"/>
+      <c r="FQ13" s="35"/>
+      <c r="FR13" s="35"/>
+      <c r="FS13" s="35"/>
+      <c r="FT13" s="35"/>
+      <c r="FU13" s="35"/>
+      <c r="FV13" s="35"/>
+      <c r="FW13" s="35"/>
+      <c r="FX13" s="35"/>
+      <c r="FY13" s="35"/>
+      <c r="FZ13" s="35"/>
+      <c r="GA13" s="35"/>
+      <c r="GB13" s="35"/>
+      <c r="GC13" s="35"/>
+      <c r="GD13" s="35"/>
+      <c r="GE13" s="35"/>
+      <c r="GF13" s="35"/>
+      <c r="GG13" s="35"/>
+      <c r="GH13" s="35"/>
     </row>
-    <row r="14" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:190" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38"/>
-      <c r="B14" s="68" t="s">
-        <v>36</v>
+      <c r="B14" s="60" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" s="29">
         <v>0.9</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="62">
         <v>43420</v>
       </c>
       <c r="F14" s="47">
@@ -2739,7 +4741,7 @@
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v>22</v>
       </c>
       <c r="I14" s="35"/>
@@ -2812,19 +4814,131 @@
       <c r="BX14" s="35"/>
       <c r="BY14" s="35"/>
       <c r="BZ14" s="35"/>
+      <c r="CA14" s="35"/>
+      <c r="CB14" s="35"/>
+      <c r="CC14" s="35"/>
+      <c r="CD14" s="35"/>
+      <c r="CE14" s="35"/>
+      <c r="CF14" s="35"/>
+      <c r="CG14" s="35"/>
+      <c r="CH14" s="35"/>
+      <c r="CI14" s="35"/>
+      <c r="CJ14" s="35"/>
+      <c r="CK14" s="35"/>
+      <c r="CL14" s="35"/>
+      <c r="CM14" s="35"/>
+      <c r="CN14" s="35"/>
+      <c r="CO14" s="35"/>
+      <c r="CP14" s="35"/>
+      <c r="CQ14" s="35"/>
+      <c r="CR14" s="35"/>
+      <c r="CS14" s="35"/>
+      <c r="CT14" s="35"/>
+      <c r="CU14" s="35"/>
+      <c r="CV14" s="35"/>
+      <c r="CW14" s="35"/>
+      <c r="CX14" s="35"/>
+      <c r="CY14" s="35"/>
+      <c r="CZ14" s="35"/>
+      <c r="DA14" s="35"/>
+      <c r="DB14" s="35"/>
+      <c r="DC14" s="35"/>
+      <c r="DD14" s="35"/>
+      <c r="DE14" s="35"/>
+      <c r="DF14" s="35"/>
+      <c r="DG14" s="35"/>
+      <c r="DH14" s="35"/>
+      <c r="DI14" s="35"/>
+      <c r="DJ14" s="35"/>
+      <c r="DK14" s="35"/>
+      <c r="DL14" s="35"/>
+      <c r="DM14" s="35"/>
+      <c r="DN14" s="35"/>
+      <c r="DO14" s="35"/>
+      <c r="DP14" s="35"/>
+      <c r="DQ14" s="35"/>
+      <c r="DR14" s="35"/>
+      <c r="DS14" s="35"/>
+      <c r="DT14" s="35"/>
+      <c r="DU14" s="35"/>
+      <c r="DV14" s="35"/>
+      <c r="DW14" s="35"/>
+      <c r="DX14" s="35"/>
+      <c r="DY14" s="35"/>
+      <c r="DZ14" s="35"/>
+      <c r="EA14" s="35"/>
+      <c r="EB14" s="35"/>
+      <c r="EC14" s="35"/>
+      <c r="ED14" s="35"/>
+      <c r="EE14" s="35"/>
+      <c r="EF14" s="35"/>
+      <c r="EG14" s="35"/>
+      <c r="EH14" s="35"/>
+      <c r="EI14" s="35"/>
+      <c r="EJ14" s="35"/>
+      <c r="EK14" s="35"/>
+      <c r="EL14" s="35"/>
+      <c r="EM14" s="35"/>
+      <c r="EN14" s="35"/>
+      <c r="EO14" s="35"/>
+      <c r="EP14" s="35"/>
+      <c r="EQ14" s="35"/>
+      <c r="ER14" s="35"/>
+      <c r="ES14" s="35"/>
+      <c r="ET14" s="35"/>
+      <c r="EU14" s="35"/>
+      <c r="EV14" s="35"/>
+      <c r="EW14" s="35"/>
+      <c r="EX14" s="35"/>
+      <c r="EY14" s="35"/>
+      <c r="EZ14" s="35"/>
+      <c r="FA14" s="35"/>
+      <c r="FB14" s="35"/>
+      <c r="FC14" s="35"/>
+      <c r="FD14" s="35"/>
+      <c r="FE14" s="35"/>
+      <c r="FF14" s="35"/>
+      <c r="FG14" s="35"/>
+      <c r="FH14" s="35"/>
+      <c r="FI14" s="35"/>
+      <c r="FJ14" s="35"/>
+      <c r="FK14" s="35"/>
+      <c r="FL14" s="35"/>
+      <c r="FM14" s="35"/>
+      <c r="FN14" s="35"/>
+      <c r="FO14" s="35"/>
+      <c r="FP14" s="35"/>
+      <c r="FQ14" s="35"/>
+      <c r="FR14" s="35"/>
+      <c r="FS14" s="35"/>
+      <c r="FT14" s="35"/>
+      <c r="FU14" s="35"/>
+      <c r="FV14" s="35"/>
+      <c r="FW14" s="35"/>
+      <c r="FX14" s="35"/>
+      <c r="FY14" s="35"/>
+      <c r="FZ14" s="35"/>
+      <c r="GA14" s="35"/>
+      <c r="GB14" s="35"/>
+      <c r="GC14" s="35"/>
+      <c r="GD14" s="35"/>
+      <c r="GE14" s="35"/>
+      <c r="GF14" s="35"/>
+      <c r="GG14" s="35"/>
+      <c r="GH14" s="35"/>
     </row>
-    <row r="15" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:190" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38"/>
-      <c r="B15" s="68" t="s">
-        <v>38</v>
+      <c r="B15" s="60" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" s="29">
         <v>0.2</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="62">
         <v>43420</v>
       </c>
       <c r="F15" s="47">
@@ -2832,7 +4946,7 @@
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v>22</v>
       </c>
       <c r="I15" s="35"/>
@@ -2905,13 +5019,125 @@
       <c r="BX15" s="35"/>
       <c r="BY15" s="35"/>
       <c r="BZ15" s="35"/>
+      <c r="CA15" s="35"/>
+      <c r="CB15" s="35"/>
+      <c r="CC15" s="35"/>
+      <c r="CD15" s="35"/>
+      <c r="CE15" s="35"/>
+      <c r="CF15" s="35"/>
+      <c r="CG15" s="35"/>
+      <c r="CH15" s="35"/>
+      <c r="CI15" s="35"/>
+      <c r="CJ15" s="35"/>
+      <c r="CK15" s="35"/>
+      <c r="CL15" s="35"/>
+      <c r="CM15" s="35"/>
+      <c r="CN15" s="35"/>
+      <c r="CO15" s="35"/>
+      <c r="CP15" s="35"/>
+      <c r="CQ15" s="35"/>
+      <c r="CR15" s="35"/>
+      <c r="CS15" s="35"/>
+      <c r="CT15" s="35"/>
+      <c r="CU15" s="35"/>
+      <c r="CV15" s="35"/>
+      <c r="CW15" s="35"/>
+      <c r="CX15" s="35"/>
+      <c r="CY15" s="35"/>
+      <c r="CZ15" s="35"/>
+      <c r="DA15" s="35"/>
+      <c r="DB15" s="35"/>
+      <c r="DC15" s="35"/>
+      <c r="DD15" s="35"/>
+      <c r="DE15" s="35"/>
+      <c r="DF15" s="35"/>
+      <c r="DG15" s="35"/>
+      <c r="DH15" s="35"/>
+      <c r="DI15" s="35"/>
+      <c r="DJ15" s="35"/>
+      <c r="DK15" s="35"/>
+      <c r="DL15" s="35"/>
+      <c r="DM15" s="35"/>
+      <c r="DN15" s="35"/>
+      <c r="DO15" s="35"/>
+      <c r="DP15" s="35"/>
+      <c r="DQ15" s="35"/>
+      <c r="DR15" s="35"/>
+      <c r="DS15" s="35"/>
+      <c r="DT15" s="35"/>
+      <c r="DU15" s="35"/>
+      <c r="DV15" s="35"/>
+      <c r="DW15" s="35"/>
+      <c r="DX15" s="35"/>
+      <c r="DY15" s="35"/>
+      <c r="DZ15" s="35"/>
+      <c r="EA15" s="35"/>
+      <c r="EB15" s="35"/>
+      <c r="EC15" s="35"/>
+      <c r="ED15" s="35"/>
+      <c r="EE15" s="35"/>
+      <c r="EF15" s="35"/>
+      <c r="EG15" s="35"/>
+      <c r="EH15" s="35"/>
+      <c r="EI15" s="35"/>
+      <c r="EJ15" s="35"/>
+      <c r="EK15" s="35"/>
+      <c r="EL15" s="35"/>
+      <c r="EM15" s="35"/>
+      <c r="EN15" s="35"/>
+      <c r="EO15" s="35"/>
+      <c r="EP15" s="35"/>
+      <c r="EQ15" s="35"/>
+      <c r="ER15" s="35"/>
+      <c r="ES15" s="35"/>
+      <c r="ET15" s="35"/>
+      <c r="EU15" s="35"/>
+      <c r="EV15" s="35"/>
+      <c r="EW15" s="35"/>
+      <c r="EX15" s="35"/>
+      <c r="EY15" s="35"/>
+      <c r="EZ15" s="35"/>
+      <c r="FA15" s="35"/>
+      <c r="FB15" s="35"/>
+      <c r="FC15" s="35"/>
+      <c r="FD15" s="35"/>
+      <c r="FE15" s="35"/>
+      <c r="FF15" s="35"/>
+      <c r="FG15" s="35"/>
+      <c r="FH15" s="35"/>
+      <c r="FI15" s="35"/>
+      <c r="FJ15" s="35"/>
+      <c r="FK15" s="35"/>
+      <c r="FL15" s="35"/>
+      <c r="FM15" s="35"/>
+      <c r="FN15" s="35"/>
+      <c r="FO15" s="35"/>
+      <c r="FP15" s="35"/>
+      <c r="FQ15" s="35"/>
+      <c r="FR15" s="35"/>
+      <c r="FS15" s="35"/>
+      <c r="FT15" s="35"/>
+      <c r="FU15" s="35"/>
+      <c r="FV15" s="35"/>
+      <c r="FW15" s="35"/>
+      <c r="FX15" s="35"/>
+      <c r="FY15" s="35"/>
+      <c r="FZ15" s="35"/>
+      <c r="GA15" s="35"/>
+      <c r="GB15" s="35"/>
+      <c r="GC15" s="35"/>
+      <c r="GD15" s="35"/>
+      <c r="GE15" s="35"/>
+      <c r="GF15" s="35"/>
+      <c r="GG15" s="35"/>
+      <c r="GH15" s="35"/>
     </row>
-    <row r="16" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:190" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="31"/>
@@ -2919,7 +5145,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="I16" s="35"/>
@@ -2992,14 +5218,126 @@
       <c r="BX16" s="35"/>
       <c r="BY16" s="35"/>
       <c r="BZ16" s="35"/>
+      <c r="CA16" s="35"/>
+      <c r="CB16" s="35"/>
+      <c r="CC16" s="35"/>
+      <c r="CD16" s="35"/>
+      <c r="CE16" s="35"/>
+      <c r="CF16" s="35"/>
+      <c r="CG16" s="35"/>
+      <c r="CH16" s="35"/>
+      <c r="CI16" s="35"/>
+      <c r="CJ16" s="35"/>
+      <c r="CK16" s="35"/>
+      <c r="CL16" s="35"/>
+      <c r="CM16" s="35"/>
+      <c r="CN16" s="35"/>
+      <c r="CO16" s="35"/>
+      <c r="CP16" s="35"/>
+      <c r="CQ16" s="35"/>
+      <c r="CR16" s="35"/>
+      <c r="CS16" s="35"/>
+      <c r="CT16" s="35"/>
+      <c r="CU16" s="35"/>
+      <c r="CV16" s="35"/>
+      <c r="CW16" s="35"/>
+      <c r="CX16" s="35"/>
+      <c r="CY16" s="35"/>
+      <c r="CZ16" s="35"/>
+      <c r="DA16" s="35"/>
+      <c r="DB16" s="35"/>
+      <c r="DC16" s="35"/>
+      <c r="DD16" s="35"/>
+      <c r="DE16" s="35"/>
+      <c r="DF16" s="35"/>
+      <c r="DG16" s="35"/>
+      <c r="DH16" s="35"/>
+      <c r="DI16" s="35"/>
+      <c r="DJ16" s="35"/>
+      <c r="DK16" s="35"/>
+      <c r="DL16" s="35"/>
+      <c r="DM16" s="35"/>
+      <c r="DN16" s="35"/>
+      <c r="DO16" s="35"/>
+      <c r="DP16" s="35"/>
+      <c r="DQ16" s="35"/>
+      <c r="DR16" s="35"/>
+      <c r="DS16" s="35"/>
+      <c r="DT16" s="35"/>
+      <c r="DU16" s="35"/>
+      <c r="DV16" s="35"/>
+      <c r="DW16" s="35"/>
+      <c r="DX16" s="35"/>
+      <c r="DY16" s="35"/>
+      <c r="DZ16" s="35"/>
+      <c r="EA16" s="35"/>
+      <c r="EB16" s="35"/>
+      <c r="EC16" s="35"/>
+      <c r="ED16" s="35"/>
+      <c r="EE16" s="35"/>
+      <c r="EF16" s="35"/>
+      <c r="EG16" s="35"/>
+      <c r="EH16" s="35"/>
+      <c r="EI16" s="35"/>
+      <c r="EJ16" s="35"/>
+      <c r="EK16" s="35"/>
+      <c r="EL16" s="35"/>
+      <c r="EM16" s="35"/>
+      <c r="EN16" s="35"/>
+      <c r="EO16" s="35"/>
+      <c r="EP16" s="35"/>
+      <c r="EQ16" s="35"/>
+      <c r="ER16" s="35"/>
+      <c r="ES16" s="35"/>
+      <c r="ET16" s="35"/>
+      <c r="EU16" s="35"/>
+      <c r="EV16" s="35"/>
+      <c r="EW16" s="35"/>
+      <c r="EX16" s="35"/>
+      <c r="EY16" s="35"/>
+      <c r="EZ16" s="35"/>
+      <c r="FA16" s="35"/>
+      <c r="FB16" s="35"/>
+      <c r="FC16" s="35"/>
+      <c r="FD16" s="35"/>
+      <c r="FE16" s="35"/>
+      <c r="FF16" s="35"/>
+      <c r="FG16" s="35"/>
+      <c r="FH16" s="35"/>
+      <c r="FI16" s="35"/>
+      <c r="FJ16" s="35"/>
+      <c r="FK16" s="35"/>
+      <c r="FL16" s="35"/>
+      <c r="FM16" s="35"/>
+      <c r="FN16" s="35"/>
+      <c r="FO16" s="35"/>
+      <c r="FP16" s="35"/>
+      <c r="FQ16" s="35"/>
+      <c r="FR16" s="35"/>
+      <c r="FS16" s="35"/>
+      <c r="FT16" s="35"/>
+      <c r="FU16" s="35"/>
+      <c r="FV16" s="35"/>
+      <c r="FW16" s="35"/>
+      <c r="FX16" s="35"/>
+      <c r="FY16" s="35"/>
+      <c r="FZ16" s="35"/>
+      <c r="GA16" s="35"/>
+      <c r="GB16" s="35"/>
+      <c r="GC16" s="35"/>
+      <c r="GD16" s="35"/>
+      <c r="GE16" s="35"/>
+      <c r="GF16" s="35"/>
+      <c r="GG16" s="35"/>
+      <c r="GH16" s="35"/>
     </row>
-    <row r="17" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38"/>
-      <c r="B17" s="69" t="s">
-        <v>40</v>
+      <c r="B17" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D17" s="34">
         <v>1</v>
@@ -3012,7 +5350,7 @@
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v>1</v>
       </c>
       <c r="I17" s="35"/>
@@ -3085,14 +5423,126 @@
       <c r="BX17" s="35"/>
       <c r="BY17" s="35"/>
       <c r="BZ17" s="35"/>
+      <c r="CA17" s="35"/>
+      <c r="CB17" s="35"/>
+      <c r="CC17" s="35"/>
+      <c r="CD17" s="35"/>
+      <c r="CE17" s="35"/>
+      <c r="CF17" s="35"/>
+      <c r="CG17" s="35"/>
+      <c r="CH17" s="35"/>
+      <c r="CI17" s="35"/>
+      <c r="CJ17" s="35"/>
+      <c r="CK17" s="35"/>
+      <c r="CL17" s="35"/>
+      <c r="CM17" s="35"/>
+      <c r="CN17" s="35"/>
+      <c r="CO17" s="35"/>
+      <c r="CP17" s="35"/>
+      <c r="CQ17" s="35"/>
+      <c r="CR17" s="35"/>
+      <c r="CS17" s="35"/>
+      <c r="CT17" s="35"/>
+      <c r="CU17" s="35"/>
+      <c r="CV17" s="35"/>
+      <c r="CW17" s="35"/>
+      <c r="CX17" s="35"/>
+      <c r="CY17" s="35"/>
+      <c r="CZ17" s="35"/>
+      <c r="DA17" s="35"/>
+      <c r="DB17" s="35"/>
+      <c r="DC17" s="35"/>
+      <c r="DD17" s="35"/>
+      <c r="DE17" s="35"/>
+      <c r="DF17" s="35"/>
+      <c r="DG17" s="35"/>
+      <c r="DH17" s="35"/>
+      <c r="DI17" s="35"/>
+      <c r="DJ17" s="35"/>
+      <c r="DK17" s="35"/>
+      <c r="DL17" s="35"/>
+      <c r="DM17" s="35"/>
+      <c r="DN17" s="35"/>
+      <c r="DO17" s="35"/>
+      <c r="DP17" s="35"/>
+      <c r="DQ17" s="35"/>
+      <c r="DR17" s="35"/>
+      <c r="DS17" s="35"/>
+      <c r="DT17" s="35"/>
+      <c r="DU17" s="35"/>
+      <c r="DV17" s="35"/>
+      <c r="DW17" s="35"/>
+      <c r="DX17" s="35"/>
+      <c r="DY17" s="35"/>
+      <c r="DZ17" s="35"/>
+      <c r="EA17" s="35"/>
+      <c r="EB17" s="35"/>
+      <c r="EC17" s="35"/>
+      <c r="ED17" s="35"/>
+      <c r="EE17" s="35"/>
+      <c r="EF17" s="35"/>
+      <c r="EG17" s="35"/>
+      <c r="EH17" s="35"/>
+      <c r="EI17" s="35"/>
+      <c r="EJ17" s="35"/>
+      <c r="EK17" s="35"/>
+      <c r="EL17" s="35"/>
+      <c r="EM17" s="35"/>
+      <c r="EN17" s="35"/>
+      <c r="EO17" s="35"/>
+      <c r="EP17" s="35"/>
+      <c r="EQ17" s="35"/>
+      <c r="ER17" s="35"/>
+      <c r="ES17" s="35"/>
+      <c r="ET17" s="35"/>
+      <c r="EU17" s="35"/>
+      <c r="EV17" s="35"/>
+      <c r="EW17" s="35"/>
+      <c r="EX17" s="35"/>
+      <c r="EY17" s="35"/>
+      <c r="EZ17" s="35"/>
+      <c r="FA17" s="35"/>
+      <c r="FB17" s="35"/>
+      <c r="FC17" s="35"/>
+      <c r="FD17" s="35"/>
+      <c r="FE17" s="35"/>
+      <c r="FF17" s="35"/>
+      <c r="FG17" s="35"/>
+      <c r="FH17" s="35"/>
+      <c r="FI17" s="35"/>
+      <c r="FJ17" s="35"/>
+      <c r="FK17" s="35"/>
+      <c r="FL17" s="35"/>
+      <c r="FM17" s="35"/>
+      <c r="FN17" s="35"/>
+      <c r="FO17" s="35"/>
+      <c r="FP17" s="35"/>
+      <c r="FQ17" s="35"/>
+      <c r="FR17" s="35"/>
+      <c r="FS17" s="35"/>
+      <c r="FT17" s="35"/>
+      <c r="FU17" s="35"/>
+      <c r="FV17" s="35"/>
+      <c r="FW17" s="35"/>
+      <c r="FX17" s="35"/>
+      <c r="FY17" s="35"/>
+      <c r="FZ17" s="35"/>
+      <c r="GA17" s="35"/>
+      <c r="GB17" s="35"/>
+      <c r="GC17" s="35"/>
+      <c r="GD17" s="35"/>
+      <c r="GE17" s="35"/>
+      <c r="GF17" s="35"/>
+      <c r="GG17" s="35"/>
+      <c r="GH17" s="35"/>
     </row>
-    <row r="18" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
-      <c r="B18" s="69" t="s">
-        <v>41</v>
+      <c r="B18" s="61" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18" s="34">
         <v>1</v>
@@ -3100,12 +5550,12 @@
       <c r="E18" s="48">
         <v>43406</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="63">
         <v>43413</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v>8</v>
       </c>
       <c r="I18" s="35"/>
@@ -3178,14 +5628,126 @@
       <c r="BX18" s="35"/>
       <c r="BY18" s="35"/>
       <c r="BZ18" s="35"/>
+      <c r="CA18" s="35"/>
+      <c r="CB18" s="35"/>
+      <c r="CC18" s="35"/>
+      <c r="CD18" s="35"/>
+      <c r="CE18" s="35"/>
+      <c r="CF18" s="35"/>
+      <c r="CG18" s="35"/>
+      <c r="CH18" s="35"/>
+      <c r="CI18" s="35"/>
+      <c r="CJ18" s="35"/>
+      <c r="CK18" s="35"/>
+      <c r="CL18" s="35"/>
+      <c r="CM18" s="35"/>
+      <c r="CN18" s="35"/>
+      <c r="CO18" s="35"/>
+      <c r="CP18" s="35"/>
+      <c r="CQ18" s="35"/>
+      <c r="CR18" s="35"/>
+      <c r="CS18" s="35"/>
+      <c r="CT18" s="35"/>
+      <c r="CU18" s="35"/>
+      <c r="CV18" s="35"/>
+      <c r="CW18" s="35"/>
+      <c r="CX18" s="35"/>
+      <c r="CY18" s="35"/>
+      <c r="CZ18" s="35"/>
+      <c r="DA18" s="35"/>
+      <c r="DB18" s="35"/>
+      <c r="DC18" s="35"/>
+      <c r="DD18" s="35"/>
+      <c r="DE18" s="35"/>
+      <c r="DF18" s="35"/>
+      <c r="DG18" s="35"/>
+      <c r="DH18" s="35"/>
+      <c r="DI18" s="35"/>
+      <c r="DJ18" s="35"/>
+      <c r="DK18" s="35"/>
+      <c r="DL18" s="35"/>
+      <c r="DM18" s="35"/>
+      <c r="DN18" s="35"/>
+      <c r="DO18" s="35"/>
+      <c r="DP18" s="35"/>
+      <c r="DQ18" s="35"/>
+      <c r="DR18" s="35"/>
+      <c r="DS18" s="35"/>
+      <c r="DT18" s="35"/>
+      <c r="DU18" s="35"/>
+      <c r="DV18" s="35"/>
+      <c r="DW18" s="35"/>
+      <c r="DX18" s="35"/>
+      <c r="DY18" s="35"/>
+      <c r="DZ18" s="35"/>
+      <c r="EA18" s="35"/>
+      <c r="EB18" s="35"/>
+      <c r="EC18" s="35"/>
+      <c r="ED18" s="35"/>
+      <c r="EE18" s="35"/>
+      <c r="EF18" s="35"/>
+      <c r="EG18" s="35"/>
+      <c r="EH18" s="35"/>
+      <c r="EI18" s="35"/>
+      <c r="EJ18" s="35"/>
+      <c r="EK18" s="35"/>
+      <c r="EL18" s="35"/>
+      <c r="EM18" s="35"/>
+      <c r="EN18" s="35"/>
+      <c r="EO18" s="35"/>
+      <c r="EP18" s="35"/>
+      <c r="EQ18" s="35"/>
+      <c r="ER18" s="35"/>
+      <c r="ES18" s="35"/>
+      <c r="ET18" s="35"/>
+      <c r="EU18" s="35"/>
+      <c r="EV18" s="35"/>
+      <c r="EW18" s="35"/>
+      <c r="EX18" s="35"/>
+      <c r="EY18" s="35"/>
+      <c r="EZ18" s="35"/>
+      <c r="FA18" s="35"/>
+      <c r="FB18" s="35"/>
+      <c r="FC18" s="35"/>
+      <c r="FD18" s="35"/>
+      <c r="FE18" s="35"/>
+      <c r="FF18" s="35"/>
+      <c r="FG18" s="35"/>
+      <c r="FH18" s="35"/>
+      <c r="FI18" s="35"/>
+      <c r="FJ18" s="35"/>
+      <c r="FK18" s="35"/>
+      <c r="FL18" s="35"/>
+      <c r="FM18" s="35"/>
+      <c r="FN18" s="35"/>
+      <c r="FO18" s="35"/>
+      <c r="FP18" s="35"/>
+      <c r="FQ18" s="35"/>
+      <c r="FR18" s="35"/>
+      <c r="FS18" s="35"/>
+      <c r="FT18" s="35"/>
+      <c r="FU18" s="35"/>
+      <c r="FV18" s="35"/>
+      <c r="FW18" s="35"/>
+      <c r="FX18" s="35"/>
+      <c r="FY18" s="35"/>
+      <c r="FZ18" s="35"/>
+      <c r="GA18" s="35"/>
+      <c r="GB18" s="35"/>
+      <c r="GC18" s="35"/>
+      <c r="GD18" s="35"/>
+      <c r="GE18" s="35"/>
+      <c r="GF18" s="35"/>
+      <c r="GG18" s="35"/>
+      <c r="GH18" s="35"/>
     </row>
-    <row r="19" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38"/>
-      <c r="B19" s="69" t="s">
-        <v>43</v>
+      <c r="B19" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D19" s="34">
         <v>0.99</v>
@@ -3198,7 +5760,7 @@
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v>8</v>
       </c>
       <c r="I19" s="35"/>
@@ -3271,27 +5833,139 @@
       <c r="BX19" s="35"/>
       <c r="BY19" s="35"/>
       <c r="BZ19" s="35"/>
+      <c r="CA19" s="35"/>
+      <c r="CB19" s="35"/>
+      <c r="CC19" s="35"/>
+      <c r="CD19" s="35"/>
+      <c r="CE19" s="35"/>
+      <c r="CF19" s="35"/>
+      <c r="CG19" s="35"/>
+      <c r="CH19" s="35"/>
+      <c r="CI19" s="35"/>
+      <c r="CJ19" s="35"/>
+      <c r="CK19" s="35"/>
+      <c r="CL19" s="35"/>
+      <c r="CM19" s="35"/>
+      <c r="CN19" s="35"/>
+      <c r="CO19" s="35"/>
+      <c r="CP19" s="35"/>
+      <c r="CQ19" s="35"/>
+      <c r="CR19" s="35"/>
+      <c r="CS19" s="35"/>
+      <c r="CT19" s="35"/>
+      <c r="CU19" s="35"/>
+      <c r="CV19" s="35"/>
+      <c r="CW19" s="35"/>
+      <c r="CX19" s="35"/>
+      <c r="CY19" s="35"/>
+      <c r="CZ19" s="35"/>
+      <c r="DA19" s="35"/>
+      <c r="DB19" s="35"/>
+      <c r="DC19" s="35"/>
+      <c r="DD19" s="35"/>
+      <c r="DE19" s="35"/>
+      <c r="DF19" s="35"/>
+      <c r="DG19" s="35"/>
+      <c r="DH19" s="35"/>
+      <c r="DI19" s="35"/>
+      <c r="DJ19" s="35"/>
+      <c r="DK19" s="35"/>
+      <c r="DL19" s="35"/>
+      <c r="DM19" s="35"/>
+      <c r="DN19" s="35"/>
+      <c r="DO19" s="35"/>
+      <c r="DP19" s="35"/>
+      <c r="DQ19" s="35"/>
+      <c r="DR19" s="35"/>
+      <c r="DS19" s="35"/>
+      <c r="DT19" s="35"/>
+      <c r="DU19" s="35"/>
+      <c r="DV19" s="35"/>
+      <c r="DW19" s="35"/>
+      <c r="DX19" s="35"/>
+      <c r="DY19" s="35"/>
+      <c r="DZ19" s="35"/>
+      <c r="EA19" s="35"/>
+      <c r="EB19" s="35"/>
+      <c r="EC19" s="35"/>
+      <c r="ED19" s="35"/>
+      <c r="EE19" s="35"/>
+      <c r="EF19" s="35"/>
+      <c r="EG19" s="35"/>
+      <c r="EH19" s="35"/>
+      <c r="EI19" s="35"/>
+      <c r="EJ19" s="35"/>
+      <c r="EK19" s="35"/>
+      <c r="EL19" s="35"/>
+      <c r="EM19" s="35"/>
+      <c r="EN19" s="35"/>
+      <c r="EO19" s="35"/>
+      <c r="EP19" s="35"/>
+      <c r="EQ19" s="35"/>
+      <c r="ER19" s="35"/>
+      <c r="ES19" s="35"/>
+      <c r="ET19" s="35"/>
+      <c r="EU19" s="35"/>
+      <c r="EV19" s="35"/>
+      <c r="EW19" s="35"/>
+      <c r="EX19" s="35"/>
+      <c r="EY19" s="35"/>
+      <c r="EZ19" s="35"/>
+      <c r="FA19" s="35"/>
+      <c r="FB19" s="35"/>
+      <c r="FC19" s="35"/>
+      <c r="FD19" s="35"/>
+      <c r="FE19" s="35"/>
+      <c r="FF19" s="35"/>
+      <c r="FG19" s="35"/>
+      <c r="FH19" s="35"/>
+      <c r="FI19" s="35"/>
+      <c r="FJ19" s="35"/>
+      <c r="FK19" s="35"/>
+      <c r="FL19" s="35"/>
+      <c r="FM19" s="35"/>
+      <c r="FN19" s="35"/>
+      <c r="FO19" s="35"/>
+      <c r="FP19" s="35"/>
+      <c r="FQ19" s="35"/>
+      <c r="FR19" s="35"/>
+      <c r="FS19" s="35"/>
+      <c r="FT19" s="35"/>
+      <c r="FU19" s="35"/>
+      <c r="FV19" s="35"/>
+      <c r="FW19" s="35"/>
+      <c r="FX19" s="35"/>
+      <c r="FY19" s="35"/>
+      <c r="FZ19" s="35"/>
+      <c r="GA19" s="35"/>
+      <c r="GB19" s="35"/>
+      <c r="GC19" s="35"/>
+      <c r="GD19" s="35"/>
+      <c r="GE19" s="35"/>
+      <c r="GF19" s="35"/>
+      <c r="GG19" s="35"/>
+      <c r="GH19" s="35"/>
     </row>
-    <row r="20" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38"/>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="58" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>48</v>
       </c>
       <c r="D20" s="34">
         <v>1</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="63">
         <v>43406</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="63">
         <v>43406</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v>1</v>
       </c>
       <c r="I20" s="35"/>
@@ -3364,17 +6038,129 @@
       <c r="BX20" s="35"/>
       <c r="BY20" s="35"/>
       <c r="BZ20" s="35"/>
+      <c r="CA20" s="35"/>
+      <c r="CB20" s="35"/>
+      <c r="CC20" s="35"/>
+      <c r="CD20" s="35"/>
+      <c r="CE20" s="35"/>
+      <c r="CF20" s="35"/>
+      <c r="CG20" s="35"/>
+      <c r="CH20" s="35"/>
+      <c r="CI20" s="35"/>
+      <c r="CJ20" s="35"/>
+      <c r="CK20" s="35"/>
+      <c r="CL20" s="35"/>
+      <c r="CM20" s="35"/>
+      <c r="CN20" s="35"/>
+      <c r="CO20" s="35"/>
+      <c r="CP20" s="35"/>
+      <c r="CQ20" s="35"/>
+      <c r="CR20" s="35"/>
+      <c r="CS20" s="35"/>
+      <c r="CT20" s="35"/>
+      <c r="CU20" s="35"/>
+      <c r="CV20" s="35"/>
+      <c r="CW20" s="35"/>
+      <c r="CX20" s="35"/>
+      <c r="CY20" s="35"/>
+      <c r="CZ20" s="35"/>
+      <c r="DA20" s="35"/>
+      <c r="DB20" s="35"/>
+      <c r="DC20" s="35"/>
+      <c r="DD20" s="35"/>
+      <c r="DE20" s="35"/>
+      <c r="DF20" s="35"/>
+      <c r="DG20" s="35"/>
+      <c r="DH20" s="35"/>
+      <c r="DI20" s="35"/>
+      <c r="DJ20" s="35"/>
+      <c r="DK20" s="35"/>
+      <c r="DL20" s="35"/>
+      <c r="DM20" s="35"/>
+      <c r="DN20" s="35"/>
+      <c r="DO20" s="35"/>
+      <c r="DP20" s="35"/>
+      <c r="DQ20" s="35"/>
+      <c r="DR20" s="35"/>
+      <c r="DS20" s="35"/>
+      <c r="DT20" s="35"/>
+      <c r="DU20" s="35"/>
+      <c r="DV20" s="35"/>
+      <c r="DW20" s="35"/>
+      <c r="DX20" s="35"/>
+      <c r="DY20" s="35"/>
+      <c r="DZ20" s="35"/>
+      <c r="EA20" s="35"/>
+      <c r="EB20" s="35"/>
+      <c r="EC20" s="35"/>
+      <c r="ED20" s="35"/>
+      <c r="EE20" s="35"/>
+      <c r="EF20" s="35"/>
+      <c r="EG20" s="35"/>
+      <c r="EH20" s="35"/>
+      <c r="EI20" s="35"/>
+      <c r="EJ20" s="35"/>
+      <c r="EK20" s="35"/>
+      <c r="EL20" s="35"/>
+      <c r="EM20" s="35"/>
+      <c r="EN20" s="35"/>
+      <c r="EO20" s="35"/>
+      <c r="EP20" s="35"/>
+      <c r="EQ20" s="35"/>
+      <c r="ER20" s="35"/>
+      <c r="ES20" s="35"/>
+      <c r="ET20" s="35"/>
+      <c r="EU20" s="35"/>
+      <c r="EV20" s="35"/>
+      <c r="EW20" s="35"/>
+      <c r="EX20" s="35"/>
+      <c r="EY20" s="35"/>
+      <c r="EZ20" s="35"/>
+      <c r="FA20" s="35"/>
+      <c r="FB20" s="35"/>
+      <c r="FC20" s="35"/>
+      <c r="FD20" s="35"/>
+      <c r="FE20" s="35"/>
+      <c r="FF20" s="35"/>
+      <c r="FG20" s="35"/>
+      <c r="FH20" s="35"/>
+      <c r="FI20" s="35"/>
+      <c r="FJ20" s="35"/>
+      <c r="FK20" s="35"/>
+      <c r="FL20" s="35"/>
+      <c r="FM20" s="35"/>
+      <c r="FN20" s="35"/>
+      <c r="FO20" s="35"/>
+      <c r="FP20" s="35"/>
+      <c r="FQ20" s="35"/>
+      <c r="FR20" s="35"/>
+      <c r="FS20" s="35"/>
+      <c r="FT20" s="35"/>
+      <c r="FU20" s="35"/>
+      <c r="FV20" s="35"/>
+      <c r="FW20" s="35"/>
+      <c r="FX20" s="35"/>
+      <c r="FY20" s="35"/>
+      <c r="FZ20" s="35"/>
+      <c r="GA20" s="35"/>
+      <c r="GB20" s="35"/>
+      <c r="GC20" s="35"/>
+      <c r="GD20" s="35"/>
+      <c r="GE20" s="35"/>
+      <c r="GF20" s="35"/>
+      <c r="GG20" s="35"/>
+      <c r="GH20" s="35"/>
     </row>
-    <row r="21" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="38"/>
-      <c r="B21" s="69" t="s">
-        <v>50</v>
+      <c r="B21" s="61" t="s">
+        <v>44</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D21" s="34">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="E21" s="48">
         <v>43417</v>
@@ -3383,9 +6169,9 @@
         <v>43443</v>
       </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+      <c r="H21" s="14">
+        <f t="shared" si="116"/>
+        <v>27</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
@@ -3457,13 +6243,125 @@
       <c r="BX21" s="35"/>
       <c r="BY21" s="35"/>
       <c r="BZ21" s="35"/>
+      <c r="CA21" s="35"/>
+      <c r="CB21" s="35"/>
+      <c r="CC21" s="35"/>
+      <c r="CD21" s="35"/>
+      <c r="CE21" s="35"/>
+      <c r="CF21" s="35"/>
+      <c r="CG21" s="35"/>
+      <c r="CH21" s="35"/>
+      <c r="CI21" s="35"/>
+      <c r="CJ21" s="35"/>
+      <c r="CK21" s="35"/>
+      <c r="CL21" s="35"/>
+      <c r="CM21" s="35"/>
+      <c r="CN21" s="35"/>
+      <c r="CO21" s="35"/>
+      <c r="CP21" s="35"/>
+      <c r="CQ21" s="35"/>
+      <c r="CR21" s="35"/>
+      <c r="CS21" s="35"/>
+      <c r="CT21" s="35"/>
+      <c r="CU21" s="35"/>
+      <c r="CV21" s="35"/>
+      <c r="CW21" s="35"/>
+      <c r="CX21" s="35"/>
+      <c r="CY21" s="35"/>
+      <c r="CZ21" s="35"/>
+      <c r="DA21" s="35"/>
+      <c r="DB21" s="35"/>
+      <c r="DC21" s="35"/>
+      <c r="DD21" s="35"/>
+      <c r="DE21" s="35"/>
+      <c r="DF21" s="35"/>
+      <c r="DG21" s="35"/>
+      <c r="DH21" s="35"/>
+      <c r="DI21" s="35"/>
+      <c r="DJ21" s="35"/>
+      <c r="DK21" s="35"/>
+      <c r="DL21" s="35"/>
+      <c r="DM21" s="35"/>
+      <c r="DN21" s="35"/>
+      <c r="DO21" s="35"/>
+      <c r="DP21" s="35"/>
+      <c r="DQ21" s="35"/>
+      <c r="DR21" s="35"/>
+      <c r="DS21" s="35"/>
+      <c r="DT21" s="35"/>
+      <c r="DU21" s="35"/>
+      <c r="DV21" s="35"/>
+      <c r="DW21" s="35"/>
+      <c r="DX21" s="35"/>
+      <c r="DY21" s="35"/>
+      <c r="DZ21" s="35"/>
+      <c r="EA21" s="35"/>
+      <c r="EB21" s="35"/>
+      <c r="EC21" s="35"/>
+      <c r="ED21" s="35"/>
+      <c r="EE21" s="35"/>
+      <c r="EF21" s="35"/>
+      <c r="EG21" s="35"/>
+      <c r="EH21" s="35"/>
+      <c r="EI21" s="35"/>
+      <c r="EJ21" s="35"/>
+      <c r="EK21" s="35"/>
+      <c r="EL21" s="35"/>
+      <c r="EM21" s="35"/>
+      <c r="EN21" s="35"/>
+      <c r="EO21" s="35"/>
+      <c r="EP21" s="35"/>
+      <c r="EQ21" s="35"/>
+      <c r="ER21" s="35"/>
+      <c r="ES21" s="35"/>
+      <c r="ET21" s="35"/>
+      <c r="EU21" s="35"/>
+      <c r="EV21" s="35"/>
+      <c r="EW21" s="35"/>
+      <c r="EX21" s="35"/>
+      <c r="EY21" s="35"/>
+      <c r="EZ21" s="35"/>
+      <c r="FA21" s="35"/>
+      <c r="FB21" s="35"/>
+      <c r="FC21" s="35"/>
+      <c r="FD21" s="35"/>
+      <c r="FE21" s="35"/>
+      <c r="FF21" s="35"/>
+      <c r="FG21" s="35"/>
+      <c r="FH21" s="35"/>
+      <c r="FI21" s="35"/>
+      <c r="FJ21" s="35"/>
+      <c r="FK21" s="35"/>
+      <c r="FL21" s="35"/>
+      <c r="FM21" s="35"/>
+      <c r="FN21" s="35"/>
+      <c r="FO21" s="35"/>
+      <c r="FP21" s="35"/>
+      <c r="FQ21" s="35"/>
+      <c r="FR21" s="35"/>
+      <c r="FS21" s="35"/>
+      <c r="FT21" s="35"/>
+      <c r="FU21" s="35"/>
+      <c r="FV21" s="35"/>
+      <c r="FW21" s="35"/>
+      <c r="FX21" s="35"/>
+      <c r="FY21" s="35"/>
+      <c r="FZ21" s="35"/>
+      <c r="GA21" s="35"/>
+      <c r="GB21" s="35"/>
+      <c r="GC21" s="35"/>
+      <c r="GD21" s="35"/>
+      <c r="GE21" s="35"/>
+      <c r="GF21" s="35"/>
+      <c r="GG21" s="35"/>
+      <c r="GH21" s="35"/>
     </row>
-    <row r="22" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="16"/>
@@ -3471,7 +6369,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="I22" s="35"/>
@@ -3544,28 +6442,140 @@
       <c r="BX22" s="35"/>
       <c r="BY22" s="35"/>
       <c r="BZ22" s="35"/>
+      <c r="CA22" s="35"/>
+      <c r="CB22" s="35"/>
+      <c r="CC22" s="35"/>
+      <c r="CD22" s="35"/>
+      <c r="CE22" s="35"/>
+      <c r="CF22" s="35"/>
+      <c r="CG22" s="35"/>
+      <c r="CH22" s="35"/>
+      <c r="CI22" s="35"/>
+      <c r="CJ22" s="35"/>
+      <c r="CK22" s="35"/>
+      <c r="CL22" s="35"/>
+      <c r="CM22" s="35"/>
+      <c r="CN22" s="35"/>
+      <c r="CO22" s="35"/>
+      <c r="CP22" s="35"/>
+      <c r="CQ22" s="35"/>
+      <c r="CR22" s="35"/>
+      <c r="CS22" s="35"/>
+      <c r="CT22" s="35"/>
+      <c r="CU22" s="35"/>
+      <c r="CV22" s="35"/>
+      <c r="CW22" s="35"/>
+      <c r="CX22" s="35"/>
+      <c r="CY22" s="35"/>
+      <c r="CZ22" s="35"/>
+      <c r="DA22" s="35"/>
+      <c r="DB22" s="35"/>
+      <c r="DC22" s="35"/>
+      <c r="DD22" s="35"/>
+      <c r="DE22" s="35"/>
+      <c r="DF22" s="35"/>
+      <c r="DG22" s="35"/>
+      <c r="DH22" s="35"/>
+      <c r="DI22" s="35"/>
+      <c r="DJ22" s="35"/>
+      <c r="DK22" s="35"/>
+      <c r="DL22" s="35"/>
+      <c r="DM22" s="35"/>
+      <c r="DN22" s="35"/>
+      <c r="DO22" s="35"/>
+      <c r="DP22" s="35"/>
+      <c r="DQ22" s="35"/>
+      <c r="DR22" s="35"/>
+      <c r="DS22" s="35"/>
+      <c r="DT22" s="35"/>
+      <c r="DU22" s="35"/>
+      <c r="DV22" s="35"/>
+      <c r="DW22" s="35"/>
+      <c r="DX22" s="35"/>
+      <c r="DY22" s="35"/>
+      <c r="DZ22" s="35"/>
+      <c r="EA22" s="35"/>
+      <c r="EB22" s="35"/>
+      <c r="EC22" s="35"/>
+      <c r="ED22" s="35"/>
+      <c r="EE22" s="35"/>
+      <c r="EF22" s="35"/>
+      <c r="EG22" s="35"/>
+      <c r="EH22" s="35"/>
+      <c r="EI22" s="35"/>
+      <c r="EJ22" s="35"/>
+      <c r="EK22" s="35"/>
+      <c r="EL22" s="35"/>
+      <c r="EM22" s="35"/>
+      <c r="EN22" s="35"/>
+      <c r="EO22" s="35"/>
+      <c r="EP22" s="35"/>
+      <c r="EQ22" s="35"/>
+      <c r="ER22" s="35"/>
+      <c r="ES22" s="35"/>
+      <c r="ET22" s="35"/>
+      <c r="EU22" s="35"/>
+      <c r="EV22" s="35"/>
+      <c r="EW22" s="35"/>
+      <c r="EX22" s="35"/>
+      <c r="EY22" s="35"/>
+      <c r="EZ22" s="35"/>
+      <c r="FA22" s="35"/>
+      <c r="FB22" s="35"/>
+      <c r="FC22" s="35"/>
+      <c r="FD22" s="35"/>
+      <c r="FE22" s="35"/>
+      <c r="FF22" s="35"/>
+      <c r="FG22" s="35"/>
+      <c r="FH22" s="35"/>
+      <c r="FI22" s="35"/>
+      <c r="FJ22" s="35"/>
+      <c r="FK22" s="35"/>
+      <c r="FL22" s="35"/>
+      <c r="FM22" s="35"/>
+      <c r="FN22" s="35"/>
+      <c r="FO22" s="35"/>
+      <c r="FP22" s="35"/>
+      <c r="FQ22" s="35"/>
+      <c r="FR22" s="35"/>
+      <c r="FS22" s="35"/>
+      <c r="FT22" s="35"/>
+      <c r="FU22" s="35"/>
+      <c r="FV22" s="35"/>
+      <c r="FW22" s="35"/>
+      <c r="FX22" s="35"/>
+      <c r="FY22" s="35"/>
+      <c r="FZ22" s="35"/>
+      <c r="GA22" s="35"/>
+      <c r="GB22" s="35"/>
+      <c r="GC22" s="35"/>
+      <c r="GD22" s="35"/>
+      <c r="GE22" s="35"/>
+      <c r="GF22" s="35"/>
+      <c r="GG22" s="35"/>
+      <c r="GH22" s="35"/>
     </row>
-    <row r="23" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38"/>
       <c r="B23" s="54" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="45">
+        <v>43434</v>
+      </c>
+      <c r="F23" s="45">
+        <v>43443</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+      <c r="H23" s="14">
+        <f t="shared" si="116"/>
+        <v>10</v>
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
@@ -3637,28 +6647,132 @@
       <c r="BX23" s="35"/>
       <c r="BY23" s="35"/>
       <c r="BZ23" s="35"/>
+      <c r="CA23" s="35"/>
+      <c r="CB23" s="35"/>
+      <c r="CC23" s="35"/>
+      <c r="CD23" s="35"/>
+      <c r="CE23" s="35"/>
+      <c r="CF23" s="35"/>
+      <c r="CG23" s="35"/>
+      <c r="CH23" s="35"/>
+      <c r="CI23" s="35"/>
+      <c r="CJ23" s="35"/>
+      <c r="CK23" s="35"/>
+      <c r="CL23" s="35"/>
+      <c r="CM23" s="35"/>
+      <c r="CN23" s="35"/>
+      <c r="CO23" s="35"/>
+      <c r="CP23" s="35"/>
+      <c r="CQ23" s="35"/>
+      <c r="CR23" s="35"/>
+      <c r="CS23" s="35"/>
+      <c r="CT23" s="35"/>
+      <c r="CU23" s="35"/>
+      <c r="CV23" s="35"/>
+      <c r="CW23" s="35"/>
+      <c r="CX23" s="35"/>
+      <c r="CY23" s="35"/>
+      <c r="CZ23" s="35"/>
+      <c r="DA23" s="35"/>
+      <c r="DB23" s="35"/>
+      <c r="DC23" s="35"/>
+      <c r="DD23" s="35"/>
+      <c r="DE23" s="35"/>
+      <c r="DF23" s="35"/>
+      <c r="DG23" s="35"/>
+      <c r="DH23" s="35"/>
+      <c r="DI23" s="35"/>
+      <c r="DJ23" s="35"/>
+      <c r="DK23" s="35"/>
+      <c r="DL23" s="35"/>
+      <c r="DM23" s="35"/>
+      <c r="DN23" s="35"/>
+      <c r="DO23" s="35"/>
+      <c r="DP23" s="35"/>
+      <c r="DQ23" s="35"/>
+      <c r="DR23" s="35"/>
+      <c r="DS23" s="35"/>
+      <c r="DT23" s="35"/>
+      <c r="DU23" s="35"/>
+      <c r="DV23" s="35"/>
+      <c r="DW23" s="35"/>
+      <c r="DX23" s="35"/>
+      <c r="DY23" s="35"/>
+      <c r="DZ23" s="35"/>
+      <c r="EA23" s="35"/>
+      <c r="EB23" s="35"/>
+      <c r="EC23" s="35"/>
+      <c r="ED23" s="35"/>
+      <c r="EE23" s="35"/>
+      <c r="EF23" s="35"/>
+      <c r="EG23" s="35"/>
+      <c r="EH23" s="35"/>
+      <c r="EI23" s="35"/>
+      <c r="EJ23" s="35"/>
+      <c r="EK23" s="35"/>
+      <c r="EL23" s="35"/>
+      <c r="EM23" s="35"/>
+      <c r="EN23" s="35"/>
+      <c r="EO23" s="35"/>
+      <c r="EP23" s="35"/>
+      <c r="EQ23" s="35"/>
+      <c r="ER23" s="35"/>
+      <c r="ES23" s="35"/>
+      <c r="ET23" s="35"/>
+      <c r="EU23" s="35"/>
+      <c r="EV23" s="35"/>
+      <c r="EW23" s="35"/>
+      <c r="EX23" s="35"/>
+      <c r="EY23" s="35"/>
+      <c r="EZ23" s="35"/>
+      <c r="FA23" s="35"/>
+      <c r="FB23" s="35"/>
+      <c r="FC23" s="35"/>
+      <c r="FD23" s="35"/>
+      <c r="FE23" s="35"/>
+      <c r="FF23" s="35"/>
+      <c r="FG23" s="35"/>
+      <c r="FH23" s="35"/>
+      <c r="FI23" s="35"/>
+      <c r="FJ23" s="35"/>
+      <c r="FK23" s="35"/>
+      <c r="FL23" s="35"/>
+      <c r="FM23" s="35"/>
+      <c r="FN23" s="35"/>
+      <c r="FO23" s="35"/>
+      <c r="FP23" s="35"/>
+      <c r="FQ23" s="35"/>
+      <c r="FR23" s="35"/>
+      <c r="FS23" s="35"/>
+      <c r="FT23" s="35"/>
+      <c r="FU23" s="35"/>
+      <c r="FV23" s="35"/>
+      <c r="FW23" s="35"/>
+      <c r="FX23" s="35"/>
+      <c r="FY23" s="35"/>
+      <c r="FZ23" s="35"/>
+      <c r="GA23" s="35"/>
+      <c r="GB23" s="35"/>
+      <c r="GC23" s="35"/>
+      <c r="GD23" s="35"/>
+      <c r="GE23" s="35"/>
+      <c r="GF23" s="35"/>
+      <c r="GG23" s="35"/>
+      <c r="GH23" s="35"/>
     </row>
-    <row r="24" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="38"/>
-      <c r="B24" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>29</v>
-      </c>
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+      <c r="H24" s="14" t="str">
+        <f t="shared" si="116"/>
+        <v/>
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -3730,28 +6844,140 @@
       <c r="BX24" s="35"/>
       <c r="BY24" s="35"/>
       <c r="BZ24" s="35"/>
+      <c r="CA24" s="35"/>
+      <c r="CB24" s="35"/>
+      <c r="CC24" s="35"/>
+      <c r="CD24" s="35"/>
+      <c r="CE24" s="35"/>
+      <c r="CF24" s="35"/>
+      <c r="CG24" s="35"/>
+      <c r="CH24" s="35"/>
+      <c r="CI24" s="35"/>
+      <c r="CJ24" s="35"/>
+      <c r="CK24" s="35"/>
+      <c r="CL24" s="35"/>
+      <c r="CM24" s="35"/>
+      <c r="CN24" s="35"/>
+      <c r="CO24" s="35"/>
+      <c r="CP24" s="35"/>
+      <c r="CQ24" s="35"/>
+      <c r="CR24" s="35"/>
+      <c r="CS24" s="35"/>
+      <c r="CT24" s="35"/>
+      <c r="CU24" s="35"/>
+      <c r="CV24" s="35"/>
+      <c r="CW24" s="35"/>
+      <c r="CX24" s="35"/>
+      <c r="CY24" s="35"/>
+      <c r="CZ24" s="35"/>
+      <c r="DA24" s="35"/>
+      <c r="DB24" s="35"/>
+      <c r="DC24" s="35"/>
+      <c r="DD24" s="35"/>
+      <c r="DE24" s="35"/>
+      <c r="DF24" s="35"/>
+      <c r="DG24" s="35"/>
+      <c r="DH24" s="35"/>
+      <c r="DI24" s="35"/>
+      <c r="DJ24" s="35"/>
+      <c r="DK24" s="35"/>
+      <c r="DL24" s="35"/>
+      <c r="DM24" s="35"/>
+      <c r="DN24" s="35"/>
+      <c r="DO24" s="35"/>
+      <c r="DP24" s="35"/>
+      <c r="DQ24" s="35"/>
+      <c r="DR24" s="35"/>
+      <c r="DS24" s="35"/>
+      <c r="DT24" s="35"/>
+      <c r="DU24" s="35"/>
+      <c r="DV24" s="35"/>
+      <c r="DW24" s="35"/>
+      <c r="DX24" s="35"/>
+      <c r="DY24" s="35"/>
+      <c r="DZ24" s="35"/>
+      <c r="EA24" s="35"/>
+      <c r="EB24" s="35"/>
+      <c r="EC24" s="35"/>
+      <c r="ED24" s="35"/>
+      <c r="EE24" s="35"/>
+      <c r="EF24" s="35"/>
+      <c r="EG24" s="35"/>
+      <c r="EH24" s="35"/>
+      <c r="EI24" s="35"/>
+      <c r="EJ24" s="35"/>
+      <c r="EK24" s="35"/>
+      <c r="EL24" s="35"/>
+      <c r="EM24" s="35"/>
+      <c r="EN24" s="35"/>
+      <c r="EO24" s="35"/>
+      <c r="EP24" s="35"/>
+      <c r="EQ24" s="35"/>
+      <c r="ER24" s="35"/>
+      <c r="ES24" s="35"/>
+      <c r="ET24" s="35"/>
+      <c r="EU24" s="35"/>
+      <c r="EV24" s="35"/>
+      <c r="EW24" s="35"/>
+      <c r="EX24" s="35"/>
+      <c r="EY24" s="35"/>
+      <c r="EZ24" s="35"/>
+      <c r="FA24" s="35"/>
+      <c r="FB24" s="35"/>
+      <c r="FC24" s="35"/>
+      <c r="FD24" s="35"/>
+      <c r="FE24" s="35"/>
+      <c r="FF24" s="35"/>
+      <c r="FG24" s="35"/>
+      <c r="FH24" s="35"/>
+      <c r="FI24" s="35"/>
+      <c r="FJ24" s="35"/>
+      <c r="FK24" s="35"/>
+      <c r="FL24" s="35"/>
+      <c r="FM24" s="35"/>
+      <c r="FN24" s="35"/>
+      <c r="FO24" s="35"/>
+      <c r="FP24" s="35"/>
+      <c r="FQ24" s="35"/>
+      <c r="FR24" s="35"/>
+      <c r="FS24" s="35"/>
+      <c r="FT24" s="35"/>
+      <c r="FU24" s="35"/>
+      <c r="FV24" s="35"/>
+      <c r="FW24" s="35"/>
+      <c r="FX24" s="35"/>
+      <c r="FY24" s="35"/>
+      <c r="FZ24" s="35"/>
+      <c r="GA24" s="35"/>
+      <c r="GB24" s="35"/>
+      <c r="GC24" s="35"/>
+      <c r="GD24" s="35"/>
+      <c r="GE24" s="35"/>
+      <c r="GF24" s="35"/>
+      <c r="GG24" s="35"/>
+      <c r="GH24" s="35"/>
     </row>
-    <row r="25" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="38"/>
-      <c r="B25" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>29</v>
+      <c r="B25" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="46">
+        <v>43427</v>
+      </c>
+      <c r="F25" s="46">
+        <v>43441</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+      <c r="H25" s="14">
+        <f t="shared" si="116"/>
+        <v>15</v>
       </c>
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
@@ -3823,28 +7049,132 @@
       <c r="BX25" s="35"/>
       <c r="BY25" s="35"/>
       <c r="BZ25" s="35"/>
+      <c r="CA25" s="35"/>
+      <c r="CB25" s="35"/>
+      <c r="CC25" s="35"/>
+      <c r="CD25" s="35"/>
+      <c r="CE25" s="35"/>
+      <c r="CF25" s="35"/>
+      <c r="CG25" s="35"/>
+      <c r="CH25" s="35"/>
+      <c r="CI25" s="35"/>
+      <c r="CJ25" s="35"/>
+      <c r="CK25" s="35"/>
+      <c r="CL25" s="35"/>
+      <c r="CM25" s="35"/>
+      <c r="CN25" s="35"/>
+      <c r="CO25" s="35"/>
+      <c r="CP25" s="35"/>
+      <c r="CQ25" s="35"/>
+      <c r="CR25" s="35"/>
+      <c r="CS25" s="35"/>
+      <c r="CT25" s="35"/>
+      <c r="CU25" s="35"/>
+      <c r="CV25" s="35"/>
+      <c r="CW25" s="35"/>
+      <c r="CX25" s="35"/>
+      <c r="CY25" s="35"/>
+      <c r="CZ25" s="35"/>
+      <c r="DA25" s="35"/>
+      <c r="DB25" s="35"/>
+      <c r="DC25" s="35"/>
+      <c r="DD25" s="35"/>
+      <c r="DE25" s="35"/>
+      <c r="DF25" s="35"/>
+      <c r="DG25" s="35"/>
+      <c r="DH25" s="35"/>
+      <c r="DI25" s="35"/>
+      <c r="DJ25" s="35"/>
+      <c r="DK25" s="35"/>
+      <c r="DL25" s="35"/>
+      <c r="DM25" s="35"/>
+      <c r="DN25" s="35"/>
+      <c r="DO25" s="35"/>
+      <c r="DP25" s="35"/>
+      <c r="DQ25" s="35"/>
+      <c r="DR25" s="35"/>
+      <c r="DS25" s="35"/>
+      <c r="DT25" s="35"/>
+      <c r="DU25" s="35"/>
+      <c r="DV25" s="35"/>
+      <c r="DW25" s="35"/>
+      <c r="DX25" s="35"/>
+      <c r="DY25" s="35"/>
+      <c r="DZ25" s="35"/>
+      <c r="EA25" s="35"/>
+      <c r="EB25" s="35"/>
+      <c r="EC25" s="35"/>
+      <c r="ED25" s="35"/>
+      <c r="EE25" s="35"/>
+      <c r="EF25" s="35"/>
+      <c r="EG25" s="35"/>
+      <c r="EH25" s="35"/>
+      <c r="EI25" s="35"/>
+      <c r="EJ25" s="35"/>
+      <c r="EK25" s="35"/>
+      <c r="EL25" s="35"/>
+      <c r="EM25" s="35"/>
+      <c r="EN25" s="35"/>
+      <c r="EO25" s="35"/>
+      <c r="EP25" s="35"/>
+      <c r="EQ25" s="35"/>
+      <c r="ER25" s="35"/>
+      <c r="ES25" s="35"/>
+      <c r="ET25" s="35"/>
+      <c r="EU25" s="35"/>
+      <c r="EV25" s="35"/>
+      <c r="EW25" s="35"/>
+      <c r="EX25" s="35"/>
+      <c r="EY25" s="35"/>
+      <c r="EZ25" s="35"/>
+      <c r="FA25" s="35"/>
+      <c r="FB25" s="35"/>
+      <c r="FC25" s="35"/>
+      <c r="FD25" s="35"/>
+      <c r="FE25" s="35"/>
+      <c r="FF25" s="35"/>
+      <c r="FG25" s="35"/>
+      <c r="FH25" s="35"/>
+      <c r="FI25" s="35"/>
+      <c r="FJ25" s="35"/>
+      <c r="FK25" s="35"/>
+      <c r="FL25" s="35"/>
+      <c r="FM25" s="35"/>
+      <c r="FN25" s="35"/>
+      <c r="FO25" s="35"/>
+      <c r="FP25" s="35"/>
+      <c r="FQ25" s="35"/>
+      <c r="FR25" s="35"/>
+      <c r="FS25" s="35"/>
+      <c r="FT25" s="35"/>
+      <c r="FU25" s="35"/>
+      <c r="FV25" s="35"/>
+      <c r="FW25" s="35"/>
+      <c r="FX25" s="35"/>
+      <c r="FY25" s="35"/>
+      <c r="FZ25" s="35"/>
+      <c r="GA25" s="35"/>
+      <c r="GB25" s="35"/>
+      <c r="GC25" s="35"/>
+      <c r="GD25" s="35"/>
+      <c r="GE25" s="35"/>
+      <c r="GF25" s="35"/>
+      <c r="GG25" s="35"/>
+      <c r="GH25" s="35"/>
     </row>
-    <row r="26" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
-      <c r="B26" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>29</v>
-      </c>
+      <c r="B26" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+      <c r="H26" s="14" t="str">
+        <f t="shared" si="116"/>
+        <v/>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
@@ -3916,28 +7246,137 @@
       <c r="BX26" s="35"/>
       <c r="BY26" s="35"/>
       <c r="BZ26" s="35"/>
+      <c r="CA26" s="35"/>
+      <c r="CB26" s="35"/>
+      <c r="CC26" s="35"/>
+      <c r="CD26" s="35"/>
+      <c r="CE26" s="35"/>
+      <c r="CF26" s="35"/>
+      <c r="CG26" s="35"/>
+      <c r="CH26" s="35"/>
+      <c r="CI26" s="35"/>
+      <c r="CJ26" s="35"/>
+      <c r="CK26" s="35"/>
+      <c r="CL26" s="35"/>
+      <c r="CM26" s="35"/>
+      <c r="CN26" s="35"/>
+      <c r="CO26" s="35"/>
+      <c r="CP26" s="35"/>
+      <c r="CQ26" s="35"/>
+      <c r="CR26" s="35"/>
+      <c r="CS26" s="35"/>
+      <c r="CT26" s="35"/>
+      <c r="CU26" s="35"/>
+      <c r="CV26" s="35"/>
+      <c r="CW26" s="35"/>
+      <c r="CX26" s="35"/>
+      <c r="CY26" s="35"/>
+      <c r="CZ26" s="35"/>
+      <c r="DA26" s="35"/>
+      <c r="DB26" s="35"/>
+      <c r="DC26" s="35"/>
+      <c r="DD26" s="35"/>
+      <c r="DE26" s="35"/>
+      <c r="DF26" s="35"/>
+      <c r="DG26" s="35"/>
+      <c r="DH26" s="35"/>
+      <c r="DI26" s="35"/>
+      <c r="DJ26" s="35"/>
+      <c r="DK26" s="35"/>
+      <c r="DL26" s="35"/>
+      <c r="DM26" s="35"/>
+      <c r="DN26" s="35"/>
+      <c r="DO26" s="35"/>
+      <c r="DP26" s="35"/>
+      <c r="DQ26" s="35"/>
+      <c r="DR26" s="35"/>
+      <c r="DS26" s="35"/>
+      <c r="DT26" s="35"/>
+      <c r="DU26" s="35"/>
+      <c r="DV26" s="35"/>
+      <c r="DW26" s="35"/>
+      <c r="DX26" s="35"/>
+      <c r="DY26" s="35"/>
+      <c r="DZ26" s="35"/>
+      <c r="EA26" s="35"/>
+      <c r="EB26" s="35"/>
+      <c r="EC26" s="35"/>
+      <c r="ED26" s="35"/>
+      <c r="EE26" s="35"/>
+      <c r="EF26" s="35"/>
+      <c r="EG26" s="35"/>
+      <c r="EH26" s="35"/>
+      <c r="EI26" s="35"/>
+      <c r="EJ26" s="35"/>
+      <c r="EK26" s="35"/>
+      <c r="EL26" s="35"/>
+      <c r="EM26" s="35"/>
+      <c r="EN26" s="35"/>
+      <c r="EO26" s="35"/>
+      <c r="EP26" s="35"/>
+      <c r="EQ26" s="35"/>
+      <c r="ER26" s="35"/>
+      <c r="ES26" s="35"/>
+      <c r="ET26" s="35"/>
+      <c r="EU26" s="35"/>
+      <c r="EV26" s="35"/>
+      <c r="EW26" s="35"/>
+      <c r="EX26" s="35"/>
+      <c r="EY26" s="35"/>
+      <c r="EZ26" s="35"/>
+      <c r="FA26" s="35"/>
+      <c r="FB26" s="35"/>
+      <c r="FC26" s="35"/>
+      <c r="FD26" s="35"/>
+      <c r="FE26" s="35"/>
+      <c r="FF26" s="35"/>
+      <c r="FG26" s="35"/>
+      <c r="FH26" s="35"/>
+      <c r="FI26" s="35"/>
+      <c r="FJ26" s="35"/>
+      <c r="FK26" s="35"/>
+      <c r="FL26" s="35"/>
+      <c r="FM26" s="35"/>
+      <c r="FN26" s="35"/>
+      <c r="FO26" s="35"/>
+      <c r="FP26" s="35"/>
+      <c r="FQ26" s="35"/>
+      <c r="FR26" s="35"/>
+      <c r="FS26" s="35"/>
+      <c r="FT26" s="35"/>
+      <c r="FU26" s="35"/>
+      <c r="FV26" s="35"/>
+      <c r="FW26" s="35"/>
+      <c r="FX26" s="35"/>
+      <c r="FY26" s="35"/>
+      <c r="FZ26" s="35"/>
+      <c r="GA26" s="35"/>
+      <c r="GB26" s="35"/>
+      <c r="GC26" s="35"/>
+      <c r="GD26" s="35"/>
+      <c r="GE26" s="35"/>
+      <c r="GF26" s="35"/>
+      <c r="GG26" s="35"/>
+      <c r="GH26" s="35"/>
+      <c r="GI26"/>
     </row>
-    <row r="27" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
-      <c r="B27" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>29</v>
-      </c>
+      <c r="B27" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+      <c r="H27" s="14" t="str">
+        <f t="shared" si="116"/>
+        <v/>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
@@ -4009,25 +7448,137 @@
       <c r="BX27" s="35"/>
       <c r="BY27" s="35"/>
       <c r="BZ27" s="35"/>
-      <c r="CA27"/>
-      <c r="CB27"/>
+      <c r="CA27" s="35"/>
+      <c r="CB27" s="35"/>
+      <c r="CC27" s="35"/>
+      <c r="CD27" s="35"/>
+      <c r="CE27" s="35"/>
+      <c r="CF27" s="35"/>
+      <c r="CG27" s="35"/>
+      <c r="CH27" s="35"/>
+      <c r="CI27" s="35"/>
+      <c r="CJ27" s="35"/>
+      <c r="CK27" s="35"/>
+      <c r="CL27" s="35"/>
+      <c r="CM27" s="35"/>
+      <c r="CN27" s="35"/>
+      <c r="CO27" s="35"/>
+      <c r="CP27" s="35"/>
+      <c r="CQ27" s="35"/>
+      <c r="CR27" s="35"/>
+      <c r="CS27" s="35"/>
+      <c r="CT27" s="35"/>
+      <c r="CU27" s="35"/>
+      <c r="CV27" s="35"/>
+      <c r="CW27" s="35"/>
+      <c r="CX27" s="35"/>
+      <c r="CY27" s="35"/>
+      <c r="CZ27" s="35"/>
+      <c r="DA27" s="35"/>
+      <c r="DB27" s="35"/>
+      <c r="DC27" s="35"/>
+      <c r="DD27" s="35"/>
+      <c r="DE27" s="35"/>
+      <c r="DF27" s="35"/>
+      <c r="DG27" s="35"/>
+      <c r="DH27" s="35"/>
+      <c r="DI27" s="35"/>
+      <c r="DJ27" s="35"/>
+      <c r="DK27" s="35"/>
+      <c r="DL27" s="35"/>
+      <c r="DM27" s="35"/>
+      <c r="DN27" s="35"/>
+      <c r="DO27" s="35"/>
+      <c r="DP27" s="35"/>
+      <c r="DQ27" s="35"/>
+      <c r="DR27" s="35"/>
+      <c r="DS27" s="35"/>
+      <c r="DT27" s="35"/>
+      <c r="DU27" s="35"/>
+      <c r="DV27" s="35"/>
+      <c r="DW27" s="35"/>
+      <c r="DX27" s="35"/>
+      <c r="DY27" s="35"/>
+      <c r="DZ27" s="35"/>
+      <c r="EA27" s="35"/>
+      <c r="EB27" s="35"/>
+      <c r="EC27" s="35"/>
+      <c r="ED27" s="35"/>
+      <c r="EE27" s="35"/>
+      <c r="EF27" s="35"/>
+      <c r="EG27" s="35"/>
+      <c r="EH27" s="35"/>
+      <c r="EI27" s="35"/>
+      <c r="EJ27" s="35"/>
+      <c r="EK27" s="35"/>
+      <c r="EL27" s="35"/>
+      <c r="EM27" s="35"/>
+      <c r="EN27" s="35"/>
+      <c r="EO27" s="35"/>
+      <c r="EP27" s="35"/>
+      <c r="EQ27" s="35"/>
+      <c r="ER27" s="35"/>
+      <c r="ES27" s="35"/>
+      <c r="ET27" s="35"/>
+      <c r="EU27" s="35"/>
+      <c r="EV27" s="35"/>
+      <c r="EW27" s="35"/>
+      <c r="EX27" s="35"/>
+      <c r="EY27" s="35"/>
+      <c r="EZ27" s="35"/>
+      <c r="FA27" s="35"/>
+      <c r="FB27" s="35"/>
+      <c r="FC27" s="35"/>
+      <c r="FD27" s="35"/>
+      <c r="FE27" s="35"/>
+      <c r="FF27" s="35"/>
+      <c r="FG27" s="35"/>
+      <c r="FH27" s="35"/>
+      <c r="FI27" s="35"/>
+      <c r="FJ27" s="35"/>
+      <c r="FK27" s="35"/>
+      <c r="FL27" s="35"/>
+      <c r="FM27" s="35"/>
+      <c r="FN27" s="35"/>
+      <c r="FO27" s="35"/>
+      <c r="FP27" s="35"/>
+      <c r="FQ27" s="35"/>
+      <c r="FR27" s="35"/>
+      <c r="FS27" s="35"/>
+      <c r="FT27" s="35"/>
+      <c r="FU27" s="35"/>
+      <c r="FV27" s="35"/>
+      <c r="FW27" s="35"/>
+      <c r="FX27" s="35"/>
+      <c r="FY27" s="35"/>
+      <c r="FZ27" s="35"/>
+      <c r="GA27" s="35"/>
+      <c r="GB27" s="35"/>
+      <c r="GC27" s="35"/>
+      <c r="GD27" s="35"/>
+      <c r="GE27" s="35"/>
+      <c r="GF27" s="35"/>
+      <c r="GG27" s="35"/>
+      <c r="GH27" s="35"/>
+      <c r="GI27"/>
     </row>
-    <row r="28" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="62"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
@@ -4098,33 +7649,137 @@
       <c r="BX28" s="35"/>
       <c r="BY28" s="35"/>
       <c r="BZ28" s="35"/>
-      <c r="CA28"/>
-      <c r="CB28"/>
+      <c r="CA28" s="35"/>
+      <c r="CB28" s="35"/>
+      <c r="CC28" s="35"/>
+      <c r="CD28" s="35"/>
+      <c r="CE28" s="35"/>
+      <c r="CF28" s="35"/>
+      <c r="CG28" s="35"/>
+      <c r="CH28" s="35"/>
+      <c r="CI28" s="35"/>
+      <c r="CJ28" s="35"/>
+      <c r="CK28" s="35"/>
+      <c r="CL28" s="35"/>
+      <c r="CM28" s="35"/>
+      <c r="CN28" s="35"/>
+      <c r="CO28" s="35"/>
+      <c r="CP28" s="35"/>
+      <c r="CQ28" s="35"/>
+      <c r="CR28" s="35"/>
+      <c r="CS28" s="35"/>
+      <c r="CT28" s="35"/>
+      <c r="CU28" s="35"/>
+      <c r="CV28" s="35"/>
+      <c r="CW28" s="35"/>
+      <c r="CX28" s="35"/>
+      <c r="CY28" s="35"/>
+      <c r="CZ28" s="35"/>
+      <c r="DA28" s="35"/>
+      <c r="DB28" s="35"/>
+      <c r="DC28" s="35"/>
+      <c r="DD28" s="35"/>
+      <c r="DE28" s="35"/>
+      <c r="DF28" s="35"/>
+      <c r="DG28" s="35"/>
+      <c r="DH28" s="35"/>
+      <c r="DI28" s="35"/>
+      <c r="DJ28" s="35"/>
+      <c r="DK28" s="35"/>
+      <c r="DL28" s="35"/>
+      <c r="DM28" s="35"/>
+      <c r="DN28" s="35"/>
+      <c r="DO28" s="35"/>
+      <c r="DP28" s="35"/>
+      <c r="DQ28" s="35"/>
+      <c r="DR28" s="35"/>
+      <c r="DS28" s="35"/>
+      <c r="DT28" s="35"/>
+      <c r="DU28" s="35"/>
+      <c r="DV28" s="35"/>
+      <c r="DW28" s="35"/>
+      <c r="DX28" s="35"/>
+      <c r="DY28" s="35"/>
+      <c r="DZ28" s="35"/>
+      <c r="EA28" s="35"/>
+      <c r="EB28" s="35"/>
+      <c r="EC28" s="35"/>
+      <c r="ED28" s="35"/>
+      <c r="EE28" s="35"/>
+      <c r="EF28" s="35"/>
+      <c r="EG28" s="35"/>
+      <c r="EH28" s="35"/>
+      <c r="EI28" s="35"/>
+      <c r="EJ28" s="35"/>
+      <c r="EK28" s="35"/>
+      <c r="EL28" s="35"/>
+      <c r="EM28" s="35"/>
+      <c r="EN28" s="35"/>
+      <c r="EO28" s="35"/>
+      <c r="EP28" s="35"/>
+      <c r="EQ28" s="35"/>
+      <c r="ER28" s="35"/>
+      <c r="ES28" s="35"/>
+      <c r="ET28" s="35"/>
+      <c r="EU28" s="35"/>
+      <c r="EV28" s="35"/>
+      <c r="EW28" s="35"/>
+      <c r="EX28" s="35"/>
+      <c r="EY28" s="35"/>
+      <c r="EZ28" s="35"/>
+      <c r="FA28" s="35"/>
+      <c r="FB28" s="35"/>
+      <c r="FC28" s="35"/>
+      <c r="FD28" s="35"/>
+      <c r="FE28" s="35"/>
+      <c r="FF28" s="35"/>
+      <c r="FG28" s="35"/>
+      <c r="FH28" s="35"/>
+      <c r="FI28" s="35"/>
+      <c r="FJ28" s="35"/>
+      <c r="FK28" s="35"/>
+      <c r="FL28" s="35"/>
+      <c r="FM28" s="35"/>
+      <c r="FN28" s="35"/>
+      <c r="FO28" s="35"/>
+      <c r="FP28" s="35"/>
+      <c r="FQ28" s="35"/>
+      <c r="FR28" s="35"/>
+      <c r="FS28" s="35"/>
+      <c r="FT28" s="35"/>
+      <c r="FU28" s="35"/>
+      <c r="FV28" s="35"/>
+      <c r="FW28" s="35"/>
+      <c r="FX28" s="35"/>
+      <c r="FY28" s="35"/>
+      <c r="FZ28" s="35"/>
+      <c r="GA28" s="35"/>
+      <c r="GB28" s="35"/>
+      <c r="GC28" s="35"/>
+      <c r="GD28" s="35"/>
+      <c r="GE28" s="35"/>
+      <c r="GF28" s="35"/>
+      <c r="GG28" s="35"/>
+      <c r="GH28" s="35"/>
+      <c r="GI28"/>
     </row>
-    <row r="29" spans="1:80" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:191" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="62"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
       <c r="K29" s="35"/>
@@ -4195,30 +7850,134 @@
       <c r="BX29" s="35"/>
       <c r="BY29" s="35"/>
       <c r="BZ29" s="35"/>
-      <c r="CA29"/>
-      <c r="CB29"/>
+      <c r="CA29" s="35"/>
+      <c r="CB29" s="35"/>
+      <c r="CC29" s="35"/>
+      <c r="CD29" s="35"/>
+      <c r="CE29" s="35"/>
+      <c r="CF29" s="35"/>
+      <c r="CG29" s="35"/>
+      <c r="CH29" s="35"/>
+      <c r="CI29" s="35"/>
+      <c r="CJ29" s="35"/>
+      <c r="CK29" s="35"/>
+      <c r="CL29" s="35"/>
+      <c r="CM29" s="35"/>
+      <c r="CN29" s="35"/>
+      <c r="CO29" s="35"/>
+      <c r="CP29" s="35"/>
+      <c r="CQ29" s="35"/>
+      <c r="CR29" s="35"/>
+      <c r="CS29" s="35"/>
+      <c r="CT29" s="35"/>
+      <c r="CU29" s="35"/>
+      <c r="CV29" s="35"/>
+      <c r="CW29" s="35"/>
+      <c r="CX29" s="35"/>
+      <c r="CY29" s="35"/>
+      <c r="CZ29" s="35"/>
+      <c r="DA29" s="35"/>
+      <c r="DB29" s="35"/>
+      <c r="DC29" s="35"/>
+      <c r="DD29" s="35"/>
+      <c r="DE29" s="35"/>
+      <c r="DF29" s="35"/>
+      <c r="DG29" s="35"/>
+      <c r="DH29" s="35"/>
+      <c r="DI29" s="35"/>
+      <c r="DJ29" s="35"/>
+      <c r="DK29" s="35"/>
+      <c r="DL29" s="35"/>
+      <c r="DM29" s="35"/>
+      <c r="DN29" s="35"/>
+      <c r="DO29" s="35"/>
+      <c r="DP29" s="35"/>
+      <c r="DQ29" s="35"/>
+      <c r="DR29" s="35"/>
+      <c r="DS29" s="35"/>
+      <c r="DT29" s="35"/>
+      <c r="DU29" s="35"/>
+      <c r="DV29" s="35"/>
+      <c r="DW29" s="35"/>
+      <c r="DX29" s="35"/>
+      <c r="DY29" s="35"/>
+      <c r="DZ29" s="35"/>
+      <c r="EA29" s="35"/>
+      <c r="EB29" s="35"/>
+      <c r="EC29" s="35"/>
+      <c r="ED29" s="35"/>
+      <c r="EE29" s="35"/>
+      <c r="EF29" s="35"/>
+      <c r="EG29" s="35"/>
+      <c r="EH29" s="35"/>
+      <c r="EI29" s="35"/>
+      <c r="EJ29" s="35"/>
+      <c r="EK29" s="35"/>
+      <c r="EL29" s="35"/>
+      <c r="EM29" s="35"/>
+      <c r="EN29" s="35"/>
+      <c r="EO29" s="35"/>
+      <c r="EP29" s="35"/>
+      <c r="EQ29" s="35"/>
+      <c r="ER29" s="35"/>
+      <c r="ES29" s="35"/>
+      <c r="ET29" s="35"/>
+      <c r="EU29" s="35"/>
+      <c r="EV29" s="35"/>
+      <c r="EW29" s="35"/>
+      <c r="EX29" s="35"/>
+      <c r="EY29" s="35"/>
+      <c r="EZ29" s="35"/>
+      <c r="FA29" s="35"/>
+      <c r="FB29" s="35"/>
+      <c r="FC29" s="35"/>
+      <c r="FD29" s="35"/>
+      <c r="FE29" s="35"/>
+      <c r="FF29" s="35"/>
+      <c r="FG29" s="35"/>
+      <c r="FH29" s="35"/>
+      <c r="FI29" s="35"/>
+      <c r="FJ29" s="35"/>
+      <c r="FK29" s="35"/>
+      <c r="FL29" s="35"/>
+      <c r="FM29" s="35"/>
+      <c r="FN29" s="35"/>
+      <c r="FO29" s="35"/>
+      <c r="FP29" s="35"/>
+      <c r="FQ29" s="35"/>
+      <c r="FR29" s="35"/>
+      <c r="FS29" s="35"/>
+      <c r="FT29" s="35"/>
+      <c r="FU29" s="35"/>
+      <c r="FV29" s="35"/>
+      <c r="FW29" s="35"/>
+      <c r="FX29" s="35"/>
+      <c r="FY29" s="35"/>
+      <c r="FZ29" s="35"/>
+      <c r="GA29" s="35"/>
+      <c r="GB29" s="35"/>
+      <c r="GC29" s="35"/>
+      <c r="GD29" s="35"/>
+      <c r="GE29" s="35"/>
+      <c r="GF29" s="35"/>
+      <c r="GG29" s="35"/>
+      <c r="GH29" s="35"/>
+      <c r="GI29"/>
     </row>
-    <row r="30" spans="1:80" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
+    <row r="30" spans="1:191" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0</v>
+      </c>
+      <c r="E30" s="62"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
@@ -4289,28 +8048,133 @@
       <c r="BX30" s="35"/>
       <c r="BY30" s="35"/>
       <c r="BZ30" s="35"/>
+      <c r="CA30" s="35"/>
+      <c r="CB30" s="35"/>
+      <c r="CC30" s="35"/>
+      <c r="CD30" s="35"/>
+      <c r="CE30" s="35"/>
+      <c r="CF30" s="35"/>
+      <c r="CG30" s="35"/>
+      <c r="CH30" s="35"/>
+      <c r="CI30" s="35"/>
+      <c r="CJ30" s="35"/>
+      <c r="CK30" s="35"/>
+      <c r="CL30" s="35"/>
+      <c r="CM30" s="35"/>
+      <c r="CN30" s="35"/>
+      <c r="CO30" s="35"/>
+      <c r="CP30" s="35"/>
+      <c r="CQ30" s="35"/>
+      <c r="CR30" s="35"/>
+      <c r="CS30" s="35"/>
+      <c r="CT30" s="35"/>
+      <c r="CU30" s="35"/>
+      <c r="CV30" s="35"/>
+      <c r="CW30" s="35"/>
+      <c r="CX30" s="35"/>
+      <c r="CY30" s="35"/>
+      <c r="CZ30" s="35"/>
+      <c r="DA30" s="35"/>
+      <c r="DB30" s="35"/>
+      <c r="DC30" s="35"/>
+      <c r="DD30" s="35"/>
+      <c r="DE30" s="35"/>
+      <c r="DF30" s="35"/>
+      <c r="DG30" s="35"/>
+      <c r="DH30" s="35"/>
+      <c r="DI30" s="35"/>
+      <c r="DJ30" s="35"/>
+      <c r="DK30" s="35"/>
+      <c r="DL30" s="35"/>
+      <c r="DM30" s="35"/>
+      <c r="DN30" s="35"/>
+      <c r="DO30" s="35"/>
+      <c r="DP30" s="35"/>
+      <c r="DQ30" s="35"/>
+      <c r="DR30" s="35"/>
+      <c r="DS30" s="35"/>
+      <c r="DT30" s="35"/>
+      <c r="DU30" s="35"/>
+      <c r="DV30" s="35"/>
+      <c r="DW30" s="35"/>
+      <c r="DX30" s="35"/>
+      <c r="DY30" s="35"/>
+      <c r="DZ30" s="35"/>
+      <c r="EA30" s="35"/>
+      <c r="EB30" s="35"/>
+      <c r="EC30" s="35"/>
+      <c r="ED30" s="35"/>
+      <c r="EE30" s="35"/>
+      <c r="EF30" s="35"/>
+      <c r="EG30" s="35"/>
+      <c r="EH30" s="35"/>
+      <c r="EI30" s="35"/>
+      <c r="EJ30" s="35"/>
+      <c r="EK30" s="35"/>
+      <c r="EL30" s="35"/>
+      <c r="EM30" s="35"/>
+      <c r="EN30" s="35"/>
+      <c r="EO30" s="35"/>
+      <c r="EP30" s="35"/>
+      <c r="EQ30" s="35"/>
+      <c r="ER30" s="35"/>
+      <c r="ES30" s="35"/>
+      <c r="ET30" s="35"/>
+      <c r="EU30" s="35"/>
+      <c r="EV30" s="35"/>
+      <c r="EW30" s="35"/>
+      <c r="EX30" s="35"/>
+      <c r="EY30" s="35"/>
+      <c r="EZ30" s="35"/>
+      <c r="FA30" s="35"/>
+      <c r="FB30" s="35"/>
+      <c r="FC30" s="35"/>
+      <c r="FD30" s="35"/>
+      <c r="FE30" s="35"/>
+      <c r="FF30" s="35"/>
+      <c r="FG30" s="35"/>
+      <c r="FH30" s="35"/>
+      <c r="FI30" s="35"/>
+      <c r="FJ30" s="35"/>
+      <c r="FK30" s="35"/>
+      <c r="FL30" s="35"/>
+      <c r="FM30" s="35"/>
+      <c r="FN30" s="35"/>
+      <c r="FO30" s="35"/>
+      <c r="FP30" s="35"/>
+      <c r="FQ30" s="35"/>
+      <c r="FR30" s="35"/>
+      <c r="FS30" s="35"/>
+      <c r="FT30" s="35"/>
+      <c r="FU30" s="35"/>
+      <c r="FV30" s="35"/>
+      <c r="FW30" s="35"/>
+      <c r="FX30" s="35"/>
+      <c r="FY30" s="35"/>
+      <c r="FZ30" s="35"/>
+      <c r="GA30" s="35"/>
+      <c r="GB30" s="35"/>
+      <c r="GC30" s="35"/>
+      <c r="GD30" s="35"/>
+      <c r="GE30" s="35"/>
+      <c r="GF30" s="35"/>
+      <c r="GG30" s="35"/>
+      <c r="GH30" s="35"/>
     </row>
-    <row r="31" spans="1:80" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
+    <row r="31" spans="1:191" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0</v>
+      </c>
+      <c r="E31" s="62"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
@@ -4381,28 +8245,133 @@
       <c r="BX31" s="35"/>
       <c r="BY31" s="35"/>
       <c r="BZ31" s="35"/>
+      <c r="CA31" s="35"/>
+      <c r="CB31" s="35"/>
+      <c r="CC31" s="35"/>
+      <c r="CD31" s="35"/>
+      <c r="CE31" s="35"/>
+      <c r="CF31" s="35"/>
+      <c r="CG31" s="35"/>
+      <c r="CH31" s="35"/>
+      <c r="CI31" s="35"/>
+      <c r="CJ31" s="35"/>
+      <c r="CK31" s="35"/>
+      <c r="CL31" s="35"/>
+      <c r="CM31" s="35"/>
+      <c r="CN31" s="35"/>
+      <c r="CO31" s="35"/>
+      <c r="CP31" s="35"/>
+      <c r="CQ31" s="35"/>
+      <c r="CR31" s="35"/>
+      <c r="CS31" s="35"/>
+      <c r="CT31" s="35"/>
+      <c r="CU31" s="35"/>
+      <c r="CV31" s="35"/>
+      <c r="CW31" s="35"/>
+      <c r="CX31" s="35"/>
+      <c r="CY31" s="35"/>
+      <c r="CZ31" s="35"/>
+      <c r="DA31" s="35"/>
+      <c r="DB31" s="35"/>
+      <c r="DC31" s="35"/>
+      <c r="DD31" s="35"/>
+      <c r="DE31" s="35"/>
+      <c r="DF31" s="35"/>
+      <c r="DG31" s="35"/>
+      <c r="DH31" s="35"/>
+      <c r="DI31" s="35"/>
+      <c r="DJ31" s="35"/>
+      <c r="DK31" s="35"/>
+      <c r="DL31" s="35"/>
+      <c r="DM31" s="35"/>
+      <c r="DN31" s="35"/>
+      <c r="DO31" s="35"/>
+      <c r="DP31" s="35"/>
+      <c r="DQ31" s="35"/>
+      <c r="DR31" s="35"/>
+      <c r="DS31" s="35"/>
+      <c r="DT31" s="35"/>
+      <c r="DU31" s="35"/>
+      <c r="DV31" s="35"/>
+      <c r="DW31" s="35"/>
+      <c r="DX31" s="35"/>
+      <c r="DY31" s="35"/>
+      <c r="DZ31" s="35"/>
+      <c r="EA31" s="35"/>
+      <c r="EB31" s="35"/>
+      <c r="EC31" s="35"/>
+      <c r="ED31" s="35"/>
+      <c r="EE31" s="35"/>
+      <c r="EF31" s="35"/>
+      <c r="EG31" s="35"/>
+      <c r="EH31" s="35"/>
+      <c r="EI31" s="35"/>
+      <c r="EJ31" s="35"/>
+      <c r="EK31" s="35"/>
+      <c r="EL31" s="35"/>
+      <c r="EM31" s="35"/>
+      <c r="EN31" s="35"/>
+      <c r="EO31" s="35"/>
+      <c r="EP31" s="35"/>
+      <c r="EQ31" s="35"/>
+      <c r="ER31" s="35"/>
+      <c r="ES31" s="35"/>
+      <c r="ET31" s="35"/>
+      <c r="EU31" s="35"/>
+      <c r="EV31" s="35"/>
+      <c r="EW31" s="35"/>
+      <c r="EX31" s="35"/>
+      <c r="EY31" s="35"/>
+      <c r="EZ31" s="35"/>
+      <c r="FA31" s="35"/>
+      <c r="FB31" s="35"/>
+      <c r="FC31" s="35"/>
+      <c r="FD31" s="35"/>
+      <c r="FE31" s="35"/>
+      <c r="FF31" s="35"/>
+      <c r="FG31" s="35"/>
+      <c r="FH31" s="35"/>
+      <c r="FI31" s="35"/>
+      <c r="FJ31" s="35"/>
+      <c r="FK31" s="35"/>
+      <c r="FL31" s="35"/>
+      <c r="FM31" s="35"/>
+      <c r="FN31" s="35"/>
+      <c r="FO31" s="35"/>
+      <c r="FP31" s="35"/>
+      <c r="FQ31" s="35"/>
+      <c r="FR31" s="35"/>
+      <c r="FS31" s="35"/>
+      <c r="FT31" s="35"/>
+      <c r="FU31" s="35"/>
+      <c r="FV31" s="35"/>
+      <c r="FW31" s="35"/>
+      <c r="FX31" s="35"/>
+      <c r="FY31" s="35"/>
+      <c r="FZ31" s="35"/>
+      <c r="GA31" s="35"/>
+      <c r="GB31" s="35"/>
+      <c r="GC31" s="35"/>
+      <c r="GD31" s="35"/>
+      <c r="GE31" s="35"/>
+      <c r="GF31" s="35"/>
+      <c r="GG31" s="35"/>
+      <c r="GH31" s="35"/>
     </row>
-    <row r="32" spans="1:80" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
+    <row r="32" spans="1:191" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0</v>
+      </c>
+      <c r="E32" s="62"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
       <c r="K32" s="35"/>
@@ -4473,101 +8442,147 @@
       <c r="BX32" s="35"/>
       <c r="BY32" s="35"/>
       <c r="BZ32" s="35"/>
+      <c r="CA32" s="35"/>
+      <c r="CB32" s="35"/>
+      <c r="CC32" s="35"/>
+      <c r="CD32" s="35"/>
+      <c r="CE32" s="35"/>
+      <c r="CF32" s="35"/>
+      <c r="CG32" s="35"/>
+      <c r="CH32" s="35"/>
+      <c r="CI32" s="35"/>
+      <c r="CJ32" s="35"/>
+      <c r="CK32" s="35"/>
+      <c r="CL32" s="35"/>
+      <c r="CM32" s="35"/>
+      <c r="CN32" s="35"/>
+      <c r="CO32" s="35"/>
+      <c r="CP32" s="35"/>
+      <c r="CQ32" s="35"/>
+      <c r="CR32" s="35"/>
+      <c r="CS32" s="35"/>
+      <c r="CT32" s="35"/>
+      <c r="CU32" s="35"/>
+      <c r="CV32" s="35"/>
+      <c r="CW32" s="35"/>
+      <c r="CX32" s="35"/>
+      <c r="CY32" s="35"/>
+      <c r="CZ32" s="35"/>
+      <c r="DA32" s="35"/>
+      <c r="DB32" s="35"/>
+      <c r="DC32" s="35"/>
+      <c r="DD32" s="35"/>
+      <c r="DE32" s="35"/>
+      <c r="DF32" s="35"/>
+      <c r="DG32" s="35"/>
+      <c r="DH32" s="35"/>
+      <c r="DI32" s="35"/>
+      <c r="DJ32" s="35"/>
+      <c r="DK32" s="35"/>
+      <c r="DL32" s="35"/>
+      <c r="DM32" s="35"/>
+      <c r="DN32" s="35"/>
+      <c r="DO32" s="35"/>
+      <c r="DP32" s="35"/>
+      <c r="DQ32" s="35"/>
+      <c r="DR32" s="35"/>
+      <c r="DS32" s="35"/>
+      <c r="DT32" s="35"/>
+      <c r="DU32" s="35"/>
+      <c r="DV32" s="35"/>
+      <c r="DW32" s="35"/>
+      <c r="DX32" s="35"/>
+      <c r="DY32" s="35"/>
+      <c r="DZ32" s="35"/>
+      <c r="EA32" s="35"/>
+      <c r="EB32" s="35"/>
+      <c r="EC32" s="35"/>
+      <c r="ED32" s="35"/>
+      <c r="EE32" s="35"/>
+      <c r="EF32" s="35"/>
+      <c r="EG32" s="35"/>
+      <c r="EH32" s="35"/>
+      <c r="EI32" s="35"/>
+      <c r="EJ32" s="35"/>
+      <c r="EK32" s="35"/>
+      <c r="EL32" s="35"/>
+      <c r="EM32" s="35"/>
+      <c r="EN32" s="35"/>
+      <c r="EO32" s="35"/>
+      <c r="EP32" s="35"/>
+      <c r="EQ32" s="35"/>
+      <c r="ER32" s="35"/>
+      <c r="ES32" s="35"/>
+      <c r="ET32" s="35"/>
+      <c r="EU32" s="35"/>
+      <c r="EV32" s="35"/>
+      <c r="EW32" s="35"/>
+      <c r="EX32" s="35"/>
+      <c r="EY32" s="35"/>
+      <c r="EZ32" s="35"/>
+      <c r="FA32" s="35"/>
+      <c r="FB32" s="35"/>
+      <c r="FC32" s="35"/>
+      <c r="FD32" s="35"/>
+      <c r="FE32" s="35"/>
+      <c r="FF32" s="35"/>
+      <c r="FG32" s="35"/>
+      <c r="FH32" s="35"/>
+      <c r="FI32" s="35"/>
+      <c r="FJ32" s="35"/>
+      <c r="FK32" s="35"/>
+      <c r="FL32" s="35"/>
+      <c r="FM32" s="35"/>
+      <c r="FN32" s="35"/>
+      <c r="FO32" s="35"/>
+      <c r="FP32" s="35"/>
+      <c r="FQ32" s="35"/>
+      <c r="FR32" s="35"/>
+      <c r="FS32" s="35"/>
+      <c r="FT32" s="35"/>
+      <c r="FU32" s="35"/>
+      <c r="FV32" s="35"/>
+      <c r="FW32" s="35"/>
+      <c r="FX32" s="35"/>
+      <c r="FY32" s="35"/>
+      <c r="FZ32" s="35"/>
+      <c r="GA32" s="35"/>
+      <c r="GB32" s="35"/>
+      <c r="GC32" s="35"/>
+      <c r="GD32" s="35"/>
+      <c r="GE32" s="35"/>
+      <c r="GF32" s="35"/>
+      <c r="GG32" s="35"/>
+      <c r="GH32" s="35"/>
     </row>
-    <row r="33" spans="2:78" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="35"/>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-      <c r="AO33" s="35"/>
-      <c r="AP33" s="35"/>
-      <c r="AQ33" s="35"/>
-      <c r="AR33" s="35"/>
-      <c r="AS33" s="35"/>
-      <c r="AT33" s="35"/>
-      <c r="AU33" s="35"/>
-      <c r="AV33" s="35"/>
-      <c r="AW33" s="35"/>
-      <c r="AX33" s="35"/>
-      <c r="AY33" s="35"/>
-      <c r="AZ33" s="35"/>
-      <c r="BA33" s="35"/>
-      <c r="BB33" s="35"/>
-      <c r="BC33" s="35"/>
-      <c r="BD33" s="35"/>
-      <c r="BE33" s="35"/>
-      <c r="BF33" s="35"/>
-      <c r="BG33" s="35"/>
-      <c r="BH33" s="35"/>
-      <c r="BI33" s="35"/>
-      <c r="BJ33" s="35"/>
-      <c r="BK33" s="35"/>
-      <c r="BL33" s="35"/>
-      <c r="BM33" s="35"/>
-      <c r="BN33" s="35"/>
-      <c r="BO33" s="35"/>
-      <c r="BP33" s="35"/>
-      <c r="BQ33" s="35"/>
-      <c r="BR33" s="35"/>
-      <c r="BS33" s="35"/>
-      <c r="BT33" s="35"/>
-      <c r="BU33" s="35"/>
-      <c r="BV33" s="35"/>
-      <c r="BW33" s="35"/>
-      <c r="BX33" s="35"/>
-      <c r="BY33" s="35"/>
-      <c r="BZ33" s="35"/>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="E33"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="30">
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="C3:D3"/>
@@ -4584,7 +8599,7 @@
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D21">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4597,21 +8612,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BZ33">
-    <cfRule type="expression" dxfId="2" priority="41">
+  <conditionalFormatting sqref="I5:FZ27 GB5:GG27">
+    <cfRule type="expression" dxfId="17" priority="70">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BZ33">
-    <cfRule type="expression" dxfId="1" priority="35">
+  <conditionalFormatting sqref="I7:FZ27 GB7:GG27">
+    <cfRule type="expression" dxfId="16" priority="64">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="65" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D27">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="D22:D23">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4624,8 +8639,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D33">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D24:D25">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4636,6 +8651,85 @@
           <x14:id>{D4E9B1E9-B081-46CF-BEA6-82974D6FE0D1}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="GA5:GA27 GH5:GH27">
+    <cfRule type="expression" dxfId="14" priority="72">
+      <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="GA7:GA27 GH7:GH27">
+    <cfRule type="expression" dxfId="13" priority="75">
+      <formula>AND(task_start&lt;=GA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="76" stopIfTrue="1">
+      <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:FU28 FW28:GB28">
+    <cfRule type="expression" dxfId="11" priority="78">
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:FU28 FW28:GB28">
+    <cfRule type="expression" dxfId="10" priority="83">
+      <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="84" stopIfTrue="1">
+      <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FV28 GC28:GH28">
+    <cfRule type="expression" dxfId="8" priority="108">
+      <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FV28 GC28:GH28">
+    <cfRule type="expression" dxfId="7" priority="111">
+      <formula>AND(task_start&lt;=GA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="112" stopIfTrue="1">
+      <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1CCEC6F3-6C81-49E6-91E2-DF7A2EA5F39C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:FP32 FR29:FW32">
+    <cfRule type="expression" dxfId="5" priority="114">
+      <formula>AND(TODAY()&gt;=Q$5,TODAY()&lt;R$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:FP32 FR29:FW32">
+    <cfRule type="expression" dxfId="4" priority="119">
+      <formula>AND(task_start&lt;=Q$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Q$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="120" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Q$5,task_start&lt;R$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FQ29:FQ32 FX29:GH32">
+    <cfRule type="expression" dxfId="2" priority="126">
+      <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FQ29:FQ32 FX29:GH32">
+    <cfRule type="expression" dxfId="1" priority="131">
+      <formula>AND(task_start&lt;=GA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="132" stopIfTrue="1">
+      <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4681,7 +8775,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D22:D27</xm:sqref>
+          <xm:sqref>D22:D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D4E9B1E9-B081-46CF-BEA6-82974D6FE0D1}">
@@ -4696,7 +8790,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D28:D33</xm:sqref>
+          <xm:sqref>D24:D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1CCEC6F3-6C81-49E6-91E2-DF7A2EA5F39C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D26:D32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
